--- a/data/climate_actions/ipcc_mitigation_options.xlsx
+++ b/data/climate_actions/ipcc_mitigation_options.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirco\Projects\CAP\data\climate_actions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67F4335-C5CC-4152-94C8-DA31C7F6034C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC10E407-0834-4B1A-8987-B5D1792AA93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="749">
   <si>
     <t>Description</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Intervention Type</t>
-  </si>
-  <si>
     <t>Dependencies</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>Promoting the reduction in the quantity of materials used per unit of output to improve material efficiency, reduce transport needs, and enhance the efficiency of freight transport. Examples include combining multiple functions into single devices, localized production through 3D printing, and circular economy principles.</t>
   </si>
   <si>
-    <t>['programs_and_initiatives', 'infrastructure_investments'</t>
-  </si>
-  <si>
     <t>Encourages reduced material consumption and adoption of multifunctional devices to reduce transport demand</t>
   </si>
   <si>
@@ -1156,9 +1150,6 @@
     <t>PrimaryPurpose</t>
   </si>
   <si>
-    <t>BehaviouralChangeTargeted</t>
-  </si>
-  <si>
     <t>AdaptationEffectiveness</t>
   </si>
   <si>
@@ -2315,6 +2306,12 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t>InterventionType</t>
+  </si>
+  <si>
+    <t>BehavioralChangeTargeted</t>
   </si>
 </sst>
 </file>
@@ -2670,8 +2667,8 @@
   </sheetPr>
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M31" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2696,4544 +2693,4544 @@
   <sheetData>
     <row r="1" spans="1:20" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>360</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>2</v>
+        <v>360</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>747</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="O1" s="8" t="s">
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="P1" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="N2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="N3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="41.5" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="N4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="I5" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="N5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="N6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="N8" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="N9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="N10" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="N11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="N12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="N13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="N14" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="N15" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="25.5" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="N16" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="N17" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="N18" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="68" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="N19" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="31.5" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="N20" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="37.5" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="N21" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="50" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="N22" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="41.5" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="N23" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="N24" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="N25" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O25" s="9"/>
       <c r="P25" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="N26" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="N27" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="N28" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="N29" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="62.5">
       <c r="A30" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="N30" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O30" s="9"/>
       <c r="P30" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="75">
       <c r="A31" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="N31" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O31" s="9"/>
       <c r="P31" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="62.5">
       <c r="A32" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="N32" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O32" s="9"/>
       <c r="P32" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="62.5">
       <c r="A33" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="N33" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O33" s="9"/>
       <c r="P33" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="50">
       <c r="A34" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="N34" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="50">
       <c r="A35" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="N35" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O35" s="9"/>
       <c r="P35" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="87.5">
       <c r="A36" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="N36" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="50">
       <c r="A37" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K37" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="N37" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O37" s="9"/>
       <c r="P37" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="100">
       <c r="A38" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="N38" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O38" s="9"/>
       <c r="P38" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="62.5">
       <c r="A39" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K39" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="N39" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O39" s="9"/>
       <c r="P39" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="87.5">
       <c r="A40" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J40" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="N40" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="O40" s="9"/>
       <c r="P40" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="75">
       <c r="A41" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I41" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="N41" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O41" s="9"/>
       <c r="P41" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="87.5">
       <c r="A42" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="N42" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O42" s="9"/>
       <c r="P42" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="75">
       <c r="A43" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J43" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="N43" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O43" s="9"/>
       <c r="P43" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="100">
       <c r="A44" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I44" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="N44" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O44" s="9"/>
       <c r="P44" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="87.5">
       <c r="A45" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J45" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K45" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="N45" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O45" s="9"/>
       <c r="P45" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="T45" s="10" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="75">
       <c r="A46" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J46" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="N46" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O46" s="9"/>
       <c r="P46" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="62.5">
       <c r="A47" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M47" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="N47" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O47" s="9"/>
       <c r="P47" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="T47" s="10" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="62.5">
       <c r="A48" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I48" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="N48" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O48" s="9"/>
       <c r="P48" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="62.5">
       <c r="A49" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="N49" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O49" s="9"/>
       <c r="P49" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="62.5">
       <c r="A50" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J50" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M50" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="N50" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O50" s="9"/>
       <c r="P50" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="T50" s="10" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="75">
       <c r="A51" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J51" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="N51" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O51" s="9"/>
       <c r="P51" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="T51" s="10" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="87.5">
       <c r="A52" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J52" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="M52" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K52" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="N52" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O52" s="9"/>
       <c r="P52" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="75">
       <c r="A53" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J53" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="N53" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="T53" s="10" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="75">
       <c r="A54" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J54" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="N54" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O54" s="9"/>
       <c r="P54" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="T54" s="10" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="75">
       <c r="A55" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I55" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="N55" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O55" s="9"/>
       <c r="P55" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="T55" s="10" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="75">
       <c r="A56" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J56" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="M56" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="N56" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O56" s="9"/>
       <c r="P56" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="S56" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="T56" s="10" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="75">
       <c r="A57" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I57" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="N57" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O57" s="9"/>
       <c r="P57" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R57" s="10" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="S57" s="10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="T57" s="10" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="62.5">
       <c r="A58" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J58" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K58" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="N58" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O58" s="9"/>
       <c r="P58" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="S58" s="10" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="T58" s="10" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="87.5">
       <c r="A59" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J59" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="M59" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K59" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="N59" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O59" s="9"/>
       <c r="P59" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="S59" s="10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="T59" s="10" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="75">
       <c r="A60" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J60" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="M60" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="N60" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O60" s="9"/>
       <c r="P60" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="S60" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="T60" s="10" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="87.5">
       <c r="A61" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J61" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="N61" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O61" s="9"/>
       <c r="P61" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R61" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="T61" s="10" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="112.5">
       <c r="A62" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J62" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="M62" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K62" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="N62" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O62" s="9"/>
       <c r="P62" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="S62" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="T62" s="10" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="75">
       <c r="A63" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I63" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L63" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="N63" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O63" s="9"/>
       <c r="P63" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="S63" s="10" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="75">
       <c r="A64" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J64" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="M64" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K64" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="N64" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O64" s="9"/>
       <c r="P64" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R64" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="S64" s="10" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="T64" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="75">
       <c r="A65" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I65" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="L65" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="N65" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O65" s="9"/>
       <c r="P65" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R65" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="S65" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="T65" s="10" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="75">
       <c r="A66" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J66" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="M66" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="N66" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O66" s="9"/>
       <c r="P66" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="S66" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="T66" s="10" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="87.5">
       <c r="A67" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J67" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="M67" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="K67" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="N67" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O67" s="9"/>
       <c r="P67" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R67" s="10" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="S67" s="10" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="T67" s="10" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="87.5">
       <c r="A68" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J68" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="M68" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K68" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="L68" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="N68" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O68" s="9"/>
       <c r="P68" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R68" s="10" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="S68" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="T68" s="10" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="100">
       <c r="A69" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J69" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="M69" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="K69" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="L69" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="N69" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O69" s="9"/>
       <c r="P69" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R69" s="10" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="S69" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="T69" s="10" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="75">
       <c r="A70" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J70" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="L70" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="N70" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O70" s="9"/>
       <c r="P70" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R70" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="S70" s="10" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="T70" s="10" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="100">
       <c r="A71" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I71" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="M71" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="L71" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="N71" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O71" s="9"/>
       <c r="P71" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R71" s="10" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="S71" s="10" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="T71" s="10" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="62.5">
       <c r="A72" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J72" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="K72" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="N72" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O72" s="9"/>
       <c r="P72" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R72" s="10" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="S72" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="T72" s="10" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="62.5">
       <c r="A73" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I73" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="N73" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O73" s="9"/>
       <c r="P73" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="S73" s="10" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="T73" s="10" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="87.5">
       <c r="A74" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J74" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="M74" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="K74" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="L74" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="N74" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O74" s="9"/>
       <c r="P74" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R74" s="10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="S74" s="10" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="T74" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="75">
       <c r="A75" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I75" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="M75" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="L75" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="N75" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="O75" s="9"/>
       <c r="P75" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R75" s="10" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="S75" s="10" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="T75" s="10" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="87.5">
       <c r="A76" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J76" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="M76" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="K76" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="N76" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="O76" s="9"/>
       <c r="P76" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R76" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="S76" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="T76" s="10" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="75">
       <c r="A77" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I77" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="M77" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="L77" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="N77" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O77" s="9"/>
       <c r="P77" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R77" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="S77" s="10" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="T77" s="10" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="62.5">
       <c r="A78" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J78" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="M78" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="K78" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="L78" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="N78" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O78" s="9"/>
       <c r="P78" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R78" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="S78" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="T78" s="10" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="75">
       <c r="A79" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J79" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="M79" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K79" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="L79" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="N79" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="O79" s="9"/>
       <c r="P79" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R79" s="10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="S79" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="T79" s="10" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="75">
       <c r="A80" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J80" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="M80" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="L80" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="N80" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O80" s="9"/>
       <c r="P80" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R80" s="10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="S80" s="10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="T80" s="10" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="75">
       <c r="A81" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J81" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="M81" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="L81" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="N81" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="O81" s="9"/>
       <c r="P81" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R81" s="10" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="S81" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="T81" s="10" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>

--- a/data/climate_actions/ipcc_mitigation_options.xlsx
+++ b/data/climate_actions/ipcc_mitigation_options.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirco\Projects\CAP\data\climate_actions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC10E407-0834-4B1A-8987-B5D1792AA93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEDB067-4E05-40C2-B544-D68DC874548A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={55E9A035-244A-4003-8C1D-80C175981CA3}</author>
-    <author>tc={9D5EEA5E-CA47-4003-91AF-82CBBFC75B37}</author>
   </authors>
   <commentList>
     <comment ref="L1" authorId="0" shapeId="0" xr:uid="{55E9A035-244A-4003-8C1D-80C175981CA3}">
@@ -52,14 +51,6 @@
 </t>
       </text>
     </comment>
-    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{9D5EEA5E-CA47-4003-91AF-82CBBFC75B37}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Needs to be an array of strings [””,””,””]</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -1582,723 +1573,6 @@
     <t>{"stationary_energy": null, "transportation": null, "waste": "40-59", "ippu": null, "afolu": null}</t>
   </si>
   <si>
-    <t>["Policy support for land-use planning, public acceptance, and reallocation of transport budgets towards sustainable modes."]</t>
-  </si>
-  <si>
-    <t>["Investment in safe walking and cycling infrastructure, public awareness campaigns, and supportive urban planning policies."]</t>
-  </si>
-  <si>
-    <t>["Investments in modern and efficient transit systems, policies to disincentivize private car use, and public awareness campaigns to encourage public transit adoption."]</t>
-  </si>
-  <si>
-    <t>["Technological innovation, adoption of circular economy practices, and behavioral shifts towards minimalism and efficiency."]</t>
-  </si>
-  <si>
-    <t>["Development of efficient shared mobility platforms, supportive urban policies, and technological advancements in ride-sharing systems."]</t>
-  </si>
-  <si>
-    <t>["Widespread access to high-speed internet, supportive organizational policies, and employee willingness to adopt teleworking."]</t>
-  </si>
-  <si>
-    <t>["Widespread adoption of ICT and IoT technologies, supportive urban planning, and investments in shared and digitalized mobility systems."]</t>
-  </si>
-  <si>
-    <t>["Access to advanced logistics tools and software, collaboration between supply chain stakeholders, and integration of eco-driving training"]</t>
-  </si>
-  <si>
-    <t>["Expansion of e-commerce platforms, investments in last-mile delivery logistics, and consumer trust in online shopping."]</t>
-  </si>
-  <si>
-    <t>["Development and deployment of autonomous vehicle technologies, supportive regulatory frameworks, and public acceptance of automated systems."]</t>
-  </si>
-  <si>
-    <t>["Development of low-cost and sustainable production technologies, supportive policy measures (e.g., fuel standards, blending mandates), and investment in distribution and storage infrastructure."]</t>
-  </si>
-  <si>
-    <t>["Dependence on advancements in battery technologies, development of charging infrastructure, policies for subsidies and incentives, and integration with renewable energy sources for electricity generation."]</t>
-  </si>
-  <si>
-    <t>["Hydrogen production infrastructure, availability of low-carbon hydrogen, cost reductions in fuel cell systems, and durable policies to support adoption."]</t>
-  </si>
-  <si>
-    <t>["Availability and development of advanced lightweight materials, efficient recycling processes, and industry-scale implementation."]</t>
-  </si>
-  <si>
-    <t>["Development and deployment of advanced vehicle technologies, regulatory frameworks, and consumer acceptance."]</t>
-  </si>
-  <si>
-    <t>["Driver education, effective training programs, policy support, and incentive mechanisms to encourage adoption of eco-driving practices."]</t>
-  </si>
-  <si>
-    <t>["Development and adoption of advanced aircraft technology, global air traffic management optimization, and industry investments in research and development."]</t>
-  </si>
-  <si>
-    <t>["Availability of low-carbon energy, advancements in fuel production technologies, cost reductions, policy support, and infrastructure for production and distribution."]</t>
-  </si>
-  <si>
-    <t>["Requires significant investments in HSR infrastructure, policy support to limit competing air travel options, and integration of rail networks with existing transportation systems."]</t>
-  </si>
-  <si>
-    <t>["Availability of low-carbon fuels and energy, infrastructure investments, retrofitting capabilities for existing ships, policy and regulatory support, and advances in fuel storage and safety technologies."]</t>
-  </si>
-  <si>
-    <t>["Availability of low-carbon electricity, advancements in battery technology, infrastructure for charging and maintenance, and supportive regulatory frameworks for the maritime industry."]</t>
-  </si>
-  <si>
-    <t>["Availability of low-carbon fuels, advancements in propulsion and hull design technologies, investments in port infrastructure, and regulatory support for energy efficiency and emissions reductions."]</t>
-  </si>
-  <si>
-    <t>["Availability of advanced technologies, supportive regulatory frameworks, investment in research and development, and alignment with global standards for emissions reduction and energy efficiency."]</t>
-  </si>
-  <si>
-    <t>["Availability of advanced fuel delivery systems, supportive policy frameworks, investment in R&amp;D for alternative reductants, and industry-wide adoption of optimized process controls and technologies."]</t>
-  </si>
-  <si>
-    <t>["Availability of advanced furnace designs, supportive policies and incentives, skilled workforce for installation and maintenance, and industry-wide adoption of energy-efficient technologies."]</t>
-  </si>
-  <si>
-    <t>["Availability of advanced heat recovery and pump technologies, skilled workforce for installation and maintenance, and policy support for adoption of waste heat recovery systems."]</t>
-  </si>
-  <si>
-    <t>["Development and deployment of advanced process integration technologies, skilled workforce training, and supportive policies to incentivize adoption."]</t>
-  </si>
-  <si>
-    <t>["Development of advanced comminution and ore sorting technologies, availability of renewable energy sources for power generation, and policy support to incentivize adoption."]</t>
-  </si>
-  <si>
-    <t>["Availability of advanced drying/dewatering technologies, skilled workforce for implementation, and supportive policies or incentives to offset initial costs."]</t>
-  </si>
-  <si>
-    <t>["Availability of recycling infrastructure, advanced technologies for material separation and recovery, and supportive policies for incentivizing recycling practices."]</t>
-  </si>
-  <si>
-    <t>["Availability of advanced technologies like sensors and machine learning systems, adequate digital infrastructure, and supportive policies for energy efficiency adoption."]</t>
-  </si>
-  <si>
-    <t>["Availability of renewable fuel infrastructure, technology development for alternative fuel production, and supportive policies."]</t>
-  </si>
-  <si>
-    <t>["Availability of low-carbon electricity, development of suitable anode materials, and infrastructure for large-scale electrification in steel production."]</t>
-  </si>
-  <si>
-    <t>["Availability of advanced heat recovery technologies, skilled workforce for installation and operation, and supportive policies and funding incentives."]</t>
-  </si>
-  <si>
-    <t>["Development of advanced process technologies, regulatory support for adoption, workforce training, and sufficient financial incentives or subsidies to offset high initial costs."]</t>
-  </si>
-  <si>
-    <t>["Access to biomass resources, skilled workforce for CHP system operation, and supportive policies to incentivize adoption of CHP systems."]</t>
-  </si>
-  <si>
-    <t>["Requires advancements in CCS and CCU technologies, availability of low-GHG electricity, and supportive policies to incentivize industrial decarbonization."]</t>
-  </si>
-  <si>
-    <t>["Availability of clean energy for hydrogen production, development of CCU technologies, and policies to support adoption."]</t>
-  </si>
-  <si>
-    <t>["Requires the development of CO2 transport and storage infrastructure, supportive policy frameworks, sufficient clean energy for capture processes, and incentives for adoption."]</t>
-  </si>
-  <si>
-    <t>["Availability of advanced materials, supportive policies for circular economy, stakeholder collaboration across supply chains, and investment in R&amp;D for lightweight materials and high-efficiency design methods."]</t>
-  </si>
-  <si>
-    <t>["Availability of advanced manufacturing technologies, workforce training, supportive regulations, and access to materials for near-net shape casting."]</t>
-  </si>
-  <si>
-    <t>["Collaboration across supply chains, advances in recycling and remanufacturing technologies, and supportive policy frameworks to incentivize adoption."]</t>
-  </si>
-  <si>
-    <t>["Effective coordination between industries, governments, and communities; supportive policies and regulations; development of recycling infrastructure; and data sharing platforms for material and energy flows."]</t>
-  </si>
-  <si>
-    <t>["Development and availability of alternative feedstocks, regulatory support for material substitution, and investment in research and development for innovative concrete applications."]</t>
-  </si>
-  <si>
-    <t>["Availability of infrastructure for waste collection and recycling, public awareness campaigns, and supportive policy frameworks."]</t>
-  </si>
-  <si>
-    <t>["Requires clear guidelines, consumer education campaigns, and industry compliance with precise dosing recommendations."]</t>
-  </si>
-  <si>
-    <t>["Development of platforms and systems to facilitate product sharing, stakeholder collaboration, and supportive policies to incentivize shared usage models."]</t>
-  </si>
-  <si>
-    <t>["Requires collaboration across material supply chains, advancements in product design, and supportive policy frameworks to incentivize circular economy practices."]</t>
-  </si>
-  <si>
-    <t>["Development of advanced maintenance techniques, effective policies to promote longer building lifespans, and education for construction professionals on durable practices."]</t>
-  </si>
-  <si>
-    <t>["Public awareness campaigns, supportive policies, and integration of sustainability into business and governmental frameworks."]</t>
-  </si>
-  <si>
-    <t>["Implementation of policies and programs promoting sustainable consumption, availability of alternatives to high-emission activities, and societal support for behavioral and lifestyle changes."]</t>
-  </si>
-  <si>
-    <t>["Requires improved governance, clear land tenure policies, funding for protected areas, and community participation in forest conservation efforts."]</t>
-  </si>
-  <si>
-    <t>["Requires funding for land restoration, access to suitable species for planting, local community engagement, and monitoring systems for ecosystem integrity and carbon sequestration."]</t>
-  </si>
-  <si>
-    <t>["Requires expertise in sustainable forestry, investment in nurseries with adapted species, supportive policies, and incentives to overcome economic barriers and ensure accessibility for local stakeholders."]</t>
-  </si>
-  <si>
-    <t>["Effective governance frameworks, access to research and technology for fire management, community engagement, and alignment with regional legal and policy frameworks."]</t>
-  </si>
-  <si>
-    <t>["Strong policy frameworks, financial incentives for conservation, and collaboration between governments, local communities, and landowners to implement sustainable practices."]</t>
-  </si>
-  <si>
-    <t>["Requires strong governance, financial support, international cooperation, and policies to control land conversion drivers such as agriculture, mining, and urban development."]</t>
-  </si>
-  <si>
-    <t>["Availability of funding, collaboration among local and national stakeholders, scientific research on optimal restoration practices, and policies to incentivize restoration efforts."]</t>
-  </si>
-  <si>
-    <t>["Effective integration of coastal climate mitigation policies, marine spatial planning, and economic incentives to prioritize wetland conservation."]</t>
-  </si>
-  <si>
-    <t>["Requires long-term commitments, supportive policies, funding, monitoring frameworks, and technical capacity to address drivers of degradation and ensure restoration success."]</t>
-  </si>
-  <si>
-    <t>["Success depends on the availability of resources for monitoring and verification, regional adaptation of practices, and addressing barriers such as soil saturation and permanence issues."]</t>
-  </si>
-  <si>
-    <t>["Availability of sustainably sourced biomass, standardization of production methods, monitoring systems, and incentives for scaling up biochar production and application."]</t>
-  </si>
-  <si>
-    <t>["Requires access to appropriate germplasm, supportive policies, extension systems, credit access, and reforms in land tenure systems. Adoption depends on aligning agroforestry practices to biophysical and socio-economic contexts."]</t>
-  </si>
-  <si>
-    <t>["Development and regulatory approval of feed additives, vaccines, and inhibitors; regional adaptation of mitigation strategies; and overcoming barriers like costs, infrastructure, and public acceptance."]</t>
-  </si>
-  <si>
-    <t>["Adequate irrigation infrastructure, training for farmers on advanced techniques, access to slow-release fertilisers and biochar, and coordinated water management practices among neighboring farmers and regions."]</t>
-  </si>
-  <si>
-    <t>["Availability of training and technical support for farmers, development of regional nutrient management roadmaps, and access to affordable fertilizers and inhibitors."]</t>
-  </si>
-  <si>
-    <t>["Development of cost-effective anaerobic digestion systems, supportive policies for nitrification inhibitors, region-specific training programs, and accessible financing for farmers."]</t>
-  </si>
-  <si>
-    <t>["Requires sustainable land management, advanced bioenergy technology development, infrastructure for carbon capture and storage, and global governance for trade and supply chains."]</t>
-  </si>
-  <si>
-    <t>["Implementation of integrated food-system policies, financial incentives for sustainable agriculture, awareness campaigns, and the development of local food systems to support dietary transitions."]</t>
-  </si>
-  <si>
-    <t>["Adequate infrastructure for food storage and transportation, policy frameworks for waste reduction, financial incentives, and widespread consumer education to change behaviors."]</t>
-  </si>
-  <si>
-    <t>["Requires sustainable forest management practices, advanced wood processing technologies, market demand for wood substitutes, and global cooperation to prevent resource exploitation."]</t>
-  </si>
-  <si>
-    <t>["Requires integrated spatial planning, infrastructure development, zoning regulations, and public transport investment."]</t>
-  </si>
-  <si>
-    <t>["Requires effective urban planning, policy support for mixed land use, investment in public transit infrastructure, and cooperation across municipal agencies."]</t>
-  </si>
-  <si>
-    <t>["High institutional capacity for cross-sector collaboration, advanced GIS tools for spatial planning, and stakeholder engagement for co-design processes."]</t>
-  </si>
-  <si>
-    <t>["Requires grid upgrades, supportive policies, stakeholder cooperation, financial incentives, and public awareness campaigns, access to renewable energy and advanced storage technologies is critical."]</t>
-  </si>
-  <si>
-    <t>["Sustainable forestry management, international carbon accounting standards, development of mass timber technologies, robust forest and urban land governance policies, and incentivized afforestation practices."]</t>
-  </si>
-  <si>
-    <t>["Availability of land for planting, community participation, funding for maintenance, and policies supporting urban greening initiatives"]</t>
-  </si>
-  <si>
-    <t>["Requires local government coordination, community engagement, urban planning integration, and adequate funding for infrastructure development and maintenance."]</t>
-  </si>
-  <si>
-    <t>["Requires integrated urban planning, investment in active transport infrastructure, collaboration between urban and transportation planners, and community engagement."]</t>
-  </si>
-  <si>
-    <t>["Requires institutional capacity, governance, cross-sectoral coordination, and public awareness campaigns, needs infrastructure for decentralized waste treatment and policies to promote circular economy practices."]</t>
-  </si>
-  <si>
-    <t>["Reduction in per capita car use, increase in public transport ridership, improved walkability index."]</t>
-  </si>
-  <si>
-    <t>["Increase in kilometers of bicycle and walking networks, rise in active transport modal share, reduction in car usage for short trips."]</t>
-  </si>
-  <si>
-    <t>["Increase in public transit ridership, reduction in private vehicle kilometers traveled, and emissions reduction per passenger kilometer."]</t>
-  </si>
-  <si>
-    <t>["Reduction in material intensity per unit output, decrease in freight transport emissions, and increased adoption of circular economy practices."]</t>
-  </si>
-  <si>
-    <t>["Increase in shared mobility trips, reduction in private vehicle kilometers traveled, and decreased transport-related emissions."]</t>
-  </si>
-  <si>
-    <t>["Reduction in commuter trips, increase in teleworking adoption rates, and decreased transport-related emissions."]</t>
-  </si>
-  <si>
-    <t>["Increase in shared and public transport use, reduction in private vehicle kilometers traveled, and decreased transport-related emissions."]</t>
-  </si>
-  <si>
-    <t>["Reduced freight distances, increased vehicle carrying capacity, improved fuel efficiency, and reduced operating costs"]</t>
-  </si>
-  <si>
-    <t>["Reduction in vehicle kilometers traveled (VMT) for shopping, increase in online shopping adoption rates, and emissions reductions in freight logistics."]</t>
-  </si>
-  <si>
-    <t>["Reduction in congestion, improved fuel efficiency, decreased transport-related emissions per vehicle kilometer, and increased accessibility for marginalized groups."]</t>
-  </si>
-  <si>
-    <t>["Reduction in GHG emissions from fuel lifecycle, percentage of vehicle fleet using alternative fuels, and infrastructure deployment metrics."]</t>
-  </si>
-  <si>
-    <t>["Percentage of electric vehicles in the vehicle fleet, reduction in GHG emissions per kilometer traveled, and availability of charging infrastructure."]</t>
-  </si>
-  <si>
-    <t>["Share of fuel cell vehicles in the vehicle fleet, reduction in GHG emissions per kilometer, deployment of hydrogen refueling stations, cost parity with diesel vehicles."]</t>
-  </si>
-  <si>
-    <t>["Reduction in vehicle mass, improvement in fuel efficiency (km/l), lifecycle GHG emissions avoided, and share of lightweighted vehicles in the fleet."]</t>
-  </si>
-  <si>
-    <t>["Improvements in fuel economy (km/l), reduction in GHG emissions per km, share of energy-efficient vehicles in fleets, and fuel cost savings."]</t>
-  </si>
-  <si>
-    <t>["Percentage reduction in fuel consumption, GHG emissions per vehicle, number of drivers trained in eco-driving, and adherence to eco-driving practices among trained drivers."]</t>
-  </si>
-  <si>
-    <t>["Percentage reduction in fuel consumption per flight, improvement in navigation efficiency, and adoption rate of advanced aircraft designs."]</t>
-  </si>
-  <si>
-    <t>["Adoption rates of SAFs, lifecycle emissions reductions, and advancements in fuel production technologies."]</t>
-  </si>
-  <si>
-    <t>["Reduction in domestic and regional air travel demand, increase in HSR ridership, and measurable reductions in transportation sector GHG emissions."]</t>
-  </si>
-  <si>
-    <t>["Adoption rate of alternative fuels, emissions reductions achieved (tank-to-wake and well-to-wake), and advancements in bunkering and storage infrastructure."]</t>
-  </si>
-  <si>
-    <t>["Reduction in lifecycle emissions of vessels, number of electric and hybrid-electric ships in operation, and improvements in port infrastructure to support electric propulsion systems."]</t>
-  </si>
-  <si>
-    <t>["Reduction in shipping emissions, adoption rate of energy-efficient technologies and operational measures, number of retrofitted vessels, and efficiency improvements in port operations."]</t>
-  </si>
-  <si>
-    <t>["Reduction in industrial GHG emissions, adoption rates of heat and energy recovery technologies, energy intensity improvements in key industries, and recycling rates."]</t>
-  </si>
-  <si>
-    <t>["Reduction in GHG emissions from heating in steel production, energy intensity improvements, increased adoption rates of pulverized coal injection and alternative fuels, and reduced production of hazardous wastes."]</t>
-  </si>
-  <si>
-    <t>["Reduction in energy intensity, GHG emissions, and hazardous waste production; increased adoption of advanced furnaces and process controls."]</t>
-  </si>
-  <si>
-    <t>["Increase in waste heat recovery rate, reduction in energy intensity, and percentage of heat reused through high-efficiency systems."]</t>
-  </si>
-  <si>
-    <t>["Reduction in energy consumption per unit of steel, increase in process coupling efficiency, and reduction in GHG emissions per ton of steel produced."]</t>
-  </si>
-  <si>
-    <t>["Reduction in energy consumption per ton of ore processed, improvement in ore recovery ratio, and reduction in GHG emissions from mining operations."]</t>
-  </si>
-  <si>
-    <t>["Reduction in energy consumption per unit of output, percentage improvement in drying efficiency, and reduction in GHG emissions from manufacturing processes."]</t>
-  </si>
-  <si>
-    <t>["Recycling rates by material type, reduction in energy consumption for material production, and decrease in landfill waste volumes."]</t>
-  </si>
-  <si>
-    <t>["Reduction in energy use, cost savings per production cycle, and percentage improvement in process efficiency."]</t>
-  </si>
-  <si>
-    <t>["Reduction in CO2 emissions, increased adoption rate of renewable fuels, and reduction in the carbon intensity of industrial processes."]</t>
-  </si>
-  <si>
-    <t>["Reduction in emissions per ton of steel produced, increase in the share of electrified processes, and energy savings in production stages."]</t>
-  </si>
-  <si>
-    <t>["Reduction in energy consumption per ton of product, increase in waste energy recovery rates, and decrease in GHG emissions intensity in industrial processes."]</t>
-  </si>
-  <si>
-    <t>["Reduction in energy use per unit of production, lower emissions per ton of material produced, increased adoption rate of advanced technologies, and improved process efficiency metrics."]</t>
-  </si>
-  <si>
-    <t>["Reduction in energy intensity per ton of paper, decrease in direct and indirect CO2 emissions, and increase in on-site electricity production through CHP systems."]</t>
-  </si>
-  <si>
-    <t>["Reduction in GHG emissions from industrial processes, increase in the use of low-carbon feedstocks, and the number of CCS/CCU projects implemented."]</t>
-  </si>
-  <si>
-    <t>["Quantity of CO2 captured and reused, reduction in emissions per ton of product, and market penetration of CCU-derived products."]</t>
-  </si>
-  <si>
-    <t>["Amount of CO2 captured and stored annually, percentage reduction in industrial emissions, and operational capacity of CCS projects globally."]</t>
-  </si>
-  <si>
-    <t>["Reduction in material usage per product, increase in product lifespan, percentage of materials recovered and reused, and reduction in GHG emissions from production processes."]</t>
-  </si>
-  <si>
-    <t>["Reduction in material waste, increase in production yield, and reduction in GHG emissions per unit of material produced."]</t>
-  </si>
-  <si>
-    <t>["Percentage of materials recovered and reused, reduction in production waste, and decrease in GHG emissions per unit of product lifecycle."]</t>
-  </si>
-  <si>
-    <t>["Reduction in virgin material use, GHG emissions avoided through CE practices, increase in recycling rates, number of industrial symbiosis networks implemented, and resource recovery metrics."]</t>
-  </si>
-  <si>
-    <t>["Reduction in clinker-to-cement ratio, lower CO2 emissions per tonne of cement, and increased adoption of alternative materials in cement production."]</t>
-  </si>
-  <si>
-    <t>["Reduction in food waste percentage, increased recycling rates, and reduced greenhouse gas emissions from waste management."]</t>
-  </si>
-  <si>
-    <t>["Reduction in material waste, increased adherence to dosing guidelines, and measurable decreases in associated emissions."]</t>
-  </si>
-  <si>
-    <t>["Number of shared product-service systems implemented, reduction in material demand per capita, and decrease in GHG emissions from product manufacturing."]</t>
-  </si>
-  <si>
-    <t>["Reduction in material use per product, increase in product lifespan, rate of reuse and repair, and reduction in GHG emissions from material production and waste."]</t>
-  </si>
-  <si>
-    <t>["Increase in the average lifespan of buildings and infrastructure, reduction in cement demand per capita, and overall CO2 emissions reductions in cement production."]</t>
-  </si>
-  <si>
-    <t>["Reduction in material and energy intensity per capita, decrease in waste generation rates, and improvement in recycling and reuse statistics."]</t>
-  </si>
-  <si>
-    <t>["Reduction in demand for high-emission products and services, decreased industrial emissions linked to product use, and increased adoption of sustainable consumption practices."]</t>
-  </si>
-  <si>
-    <t>["Reduction in deforestation rates, increased forest cover, and the amount of GHG emissions avoided per year."]</t>
-  </si>
-  <si>
-    <t>["Area of land reforested or afforested, carbon sequestration rates, improvement in biodiversity indices, and ecosystem service metrics such as water regulation and soil quality."]</t>
-  </si>
-  <si>
-    <t>["Increase in forest carbon stocks, reduction in GHG emissions, improvements in biodiversity indicators, and reduction in soil erosion and water-related issues."]</t>
-  </si>
-  <si>
-    <t>["Reduction in frequency and intensity of uncontrolled wildfires, area managed with prescribed burns, reduction in GHG emissions from fires, and improvement in biodiversity and soil health metrics."]</t>
-  </si>
-  <si>
-    <t>["Reduction in conversion rates of grasslands, increase in soil organic carbon levels, and measurable reduction in GHG emissions from targeted areas."]</t>
-  </si>
-  <si>
-    <t>["Reduction in peatland conversion rates, avoided emissions per hectare, and improvements in biodiversity and water quality metrics."]</t>
-  </si>
-  <si>
-    <t>["Area of coastal wetlands preserved, GHG emissions avoided from biomass and soil carbon loss, and improvements in biodiversity metrics and ecosystem resilience."]</t>
-  </si>
-  <si>
-    <t>["Area of wetlands restored, carbon sequestration rates, biodiversity recovery metrics, reduction in storm damage costs, and water quality improvements."]</t>
-  </si>
-  <si>
-    <t>["Increase in soil organic carbon, reduction in GHG emissions, improvement in agricultural productivity, and biodiversity enhancements."]</t>
-  </si>
-  <si>
-    <t>["Carbon sequestration rates, reduction in soil N2O emissions, crop yield improvements, and displacement of fossil fuel use through pyrolysis gases."]</t>
-  </si>
-  <si>
-    <t>["Carbon sequestration rates (above and below ground), improved soil health metrics, increase in farmer income, reduction in soil erosion, and adoption rates of agroforestry systems."]</t>
-  </si>
-  <si>
-    <t>["Reduction in CH4 emissions per animal, adoption rates of improved feeding practices, and increase in production efficiency per unit of livestock product."]</t>
-  </si>
-  <si>
-    <t>["Reduction in CH4 and N2O emissions per hectare, increased water use efficiency, yield stability during droughts, and adoption rate of improved rice cultivation techniques."]</t>
-  </si>
-  <si>
-    <t>["Reduction in N2O emissions, improvement in crop yields, increase in soil carbon sequestration, and reduction in fertilizer use per hectare."]</t>
-  </si>
-  <si>
-    <t>["Reduction in CH4 and N2O emissions from manure storage, increased adoption of anaerobic digestion systems, improved nitrogen use efficiency, and enhanced biogas production."]</t>
-  </si>
-  <si>
-    <t>["Amount of carbon removed through BECCS (in GtCO2 per year), total energy produced from bioenergy, land restored for biomass production, and GHG emissions reduction from displaced fossil fuel use."]</t>
-  </si>
-  <si>
-    <t>["Reduction in GHG emissions from food production, reduction in land use for livestock, increase in plant-based food consumption, and improvement in public health metrics related to diet-related diseases."]</t>
-  </si>
-  <si>
-    <t>["Reduction in food waste percentages at consumer and business levels, decrease in land used for agricultural production, and measurable GHG emission reductions across the food supply chain."]</t>
-  </si>
-  <si>
-    <t>["Increased use of wood products in construction, reduction in GHG emissions from material substitution, and increase in recycled wood product utilization rates."]</t>
-  </si>
-  <si>
-    <t>["Reduction in vehicle miles traveled, increase in public transport usage, percentage of urban areas with mixed-use development, and lower per capita energy use in urban areas."]</t>
-  </si>
-  <si>
-    <t>["Reduction in VMT, increase in public transit ridership, decrease in transport-related GHG emissions, and improved accessibility to jobs and housing."]</t>
-  </si>
-  <si>
-    <t>["Reduction in GHG emissions per capita, adoption rates of district heating/cooling systems, and proportion of urban population with access to green areas."]</t>
-  </si>
-  <si>
-    <t>["Reduction in GHG emissions per kWh, increase in renewable energy penetration, adoption rates of EVs and heat pumps, and improved urban air quality."]</t>
-  </si>
-  <si>
-    <t>["Reduction in embodied carbon in construction, number of mid-rise urban buildings using engineered timber, carbon sequestration capacity of urban timber infrastructure, and improvement in sustainable forestry practices."]</t>
-  </si>
-  <si>
-    <t>["Increase in urban tree cover percentage, reduction in urban heat island effect, amount of carbon sequestered, reduction in building energy use, and improvement in air quality metrics."]</t>
-  </si>
-  <si>
-    <t>["Reduction in building energy consumption, increase in urban green coverage, stormwater retention rates, increased active transportation use (cycling/walking), and improved thermal comfort."]</t>
-  </si>
-  <si>
-    <t>["Reduction in vehicle miles traveled (VMT), increase in walking and biking trips, reduction in urban GHG emissions, and improved accessibility to essential services."]</t>
-  </si>
-  <si>
-    <t>["Reduction in waste generation per capita, increase in recycling and composting rates, reduction in CH4 emissions from waste, and employment opportunities created in waste management."]</t>
-  </si>
-  <si>
-    <t>["Improved urban livability, better public health outcomes, reduced GHG emissions."]</t>
-  </si>
-  <si>
-    <t>["Improved public health, reduced urban congestion, lower transport-related GHG emissions, and enhanced quality of urban life."]</t>
-  </si>
-  <si>
-    <t>["Enhanced urban livability, reduced traffic congestion, improved public health, and significant reductions in transport-related greenhouse gas emissions."]</t>
-  </si>
-  <si>
-    <t>["Improved resource efficiency, lower environmental footprint, and potential for reduced transport emissions."]</t>
-  </si>
-  <si>
-    <t>["Enhanced urban mobility, reduced traffic congestion, lower transport emissions, and increased system efficiency."]</t>
-  </si>
-  <si>
-    <t>["Reduced traffic congestion, improved air quality, enhanced work-life balance, and lower transport emissions."]</t>
-  </si>
-  <si>
-    <t>["Enhanced urban livability, reduced congestion, improved air quality, and significant advancements in transport efficiency."]</t>
-  </si>
-  <si>
-    <t>["Reduced operating costs, improved corporate image, enhanced transport infrastructure utilisation, and potential air quality improvement"]</t>
-  </si>
-  <si>
-    <t>["Improved urban mobility, reduced shopping-related travel emissions, and enhanced convenience for consumers."]</t>
-  </si>
-  <si>
-    <t>["Enhanced road safety, reduced traffic congestion, increased accessibility for underserved populations, and optimization of transport systems for environmental and societal benefit."]</t>
-  </si>
-  <si>
-    <t>["Reduced GHG emissions, improved air quality, energy diversification, and increased resilience in transportation systems."]</t>
-  </si>
-  <si>
-    <t>["Reduced GHG emissions, improved urban air quality, decreased reliance on fossil fuels, and greater energy security."]</t>
-  </si>
-  <si>
-    <t>["Reduced GHG emissions, improved air quality, energy diversification, and advancement of clean technologies for transportation."]</t>
-  </si>
-  <si>
-    <t>["Reduced GHG emissions, enhanced fuel efficiency, improved vehicle performance, and contribution to a circular economy through advanced recycling."]</t>
-  </si>
-  <si>
-    <t>["Reduced GHG emissions, enhanced fuel efficiency, lower operating costs, and improved air quality."]</t>
-  </si>
-  <si>
-    <t>["Reduced GHG emissions, enhanced fuel efficiency, improved road safety, and lower transport costs."]</t>
-  </si>
-  <si>
-    <t>["Reduced GHG emissions, enhanced operational efficiency, and strengthened energy security in aviation."]</t>
-  </si>
-  <si>
-    <t>["Significant reductions in aviation emissions, improved energy security, and progress toward net-zero aviation operations."]</t>
-  </si>
-  <si>
-    <t>["Reduces aviation emissions, improves regional connectivity, decreases transportation-related air pollution, and enhances public transportation networks."]</t>
-  </si>
-  <si>
-    <t>["Significant reductions in maritime emissions, improved air quality, progress toward global decarbonization goals, and reduced reliance on fossil fuels in the shipping industry."]</t>
-  </si>
-  <si>
-    <t>["Significant reduction in maritime sector emissions, improved air quality in coastal and port regions, decreased reliance on fossil fuels, and promotion of innovation in clean transportation technologies."]</t>
-  </si>
-  <si>
-    <t>["Reduction in maritime emissions, improved air and water quality, increased energy security, and enhanced innovation in sustainable shipping technologies."]</t>
-  </si>
-  <si>
-    <t>["Significant reductions in industrial emissions, improved resource efficiency, enhanced energy security, and increased sustainability in manufacturing and construction sectors."]</t>
-  </si>
-  <si>
-    <t>["Significant reductions in emissions and energy use in steel manufacturing, improved air quality, enhanced energy security, and more sustainable industrial practices."]</t>
-  </si>
-  <si>
-    <t>["Significant improvements in industrial energy efficiency, reduced emissions, cost savings for manufacturers, and enhanced air quality."]</t>
-  </si>
-  <si>
-    <t>["Significant reductions in industrial energy consumption and GHG emissions, enhanced energy security, cost savings for manufacturers, and reduced environmental waste."]</t>
-  </si>
-  <si>
-    <t>["Improved energy efficiency, reduced emissions, cost savings for manufacturers, and enhanced competitiveness of the steel industry in global markets."]</t>
-  </si>
-  <si>
-    <t>["Improved energy efficiency in mining, reduced operational costs, decreased environmental footprint of mining activities, and enhanced resource utilization."]</t>
-  </si>
-  <si>
-    <t>["Increased energy efficiency, reduced operational costs, lower emissions, and enhanced sustainability in industrial processes."]</t>
-  </si>
-  <si>
-    <t>["Reduces reliance on virgin material extraction, lowers industrial energy demand, mitigates GHG emissions, and supports sustainable production practices."]</t>
-  </si>
-  <si>
-    <t>["Enhanced energy efficiency, reduced operational costs, improved industrial competitiveness, and support for decarbonization goals."]</t>
-  </si>
-  <si>
-    <t>["Reduced dependence on fossil fuels, improved energy security, and mitigation of air pollution, contributing to global emission reduction targets."]</t>
-  </si>
-  <si>
-    <t>["Reduced reliance on fossil fuels, improved air quality, and enhanced global competitiveness of steel manufacturers."]</t>
-  </si>
-  <si>
-    <t>["Enhances energy efficiency, reduces emissions, lowers operational costs, and improves competitiveness of the industrial sector in global markets."]</t>
-  </si>
-  <si>
-    <t>["Enhanced energy efficiency, significant emissions reductions, cost savings for industries, increased competitiveness in global markets, and improved environmental sustainability."]</t>
-  </si>
-  <si>
-    <t>["Improved energy efficiency, reduced emissions, enhanced competitiveness of the pulp and paper industry, and long-term cost savings for manufacturers."]</t>
-  </si>
-  <si>
-    <t>["Enhanced industrial sustainability, reduced dependence on fossil fuels, advancement of circular economy principles, and mitigation of climate change impacts."]</t>
-  </si>
-  <si>
-    <t>["Reduction in GHG emissions, enhanced energy security, and development of sustainable industries."]</t>
-  </si>
-  <si>
-    <t>["Significant reductions in GHG emissions, mitigation of climate change effects, and increased energy security through sustainable industrial practices."]</t>
-  </si>
-  <si>
-    <t>["Reduced environmental footprint, lower production costs, improved resource efficiency, and enhanced sustainability of industrial processes."]</t>
-  </si>
-  <si>
-    <t>["Significant reduction in material and energy use, enhanced production efficiency, reduced emissions, and improved sustainability across industrial supply chains."]</t>
-  </si>
-  <si>
-    <t>["Reduction in raw material demand, improved environmental sustainability, decreased emissions, and enhanced industrial efficiency."]</t>
-  </si>
-  <si>
-    <t>["Significant reductions in resource extraction, energy use, and emissions; enhanced regional development through eco-industrial parks; and broader adoption of sustainable practices across industries and urban areas."]</t>
-  </si>
-  <si>
-    <t>["Reduced GHG emissions, enhanced resource efficiency, lower energy consumption in cement production, and improved environmental quality in cement manufacturing regions."]</t>
-  </si>
-  <si>
-    <t>["Reduced environmental burden, enhanced resource efficiency, improved urban livability, and cost savings in waste management systems."]</t>
-  </si>
-  <si>
-    <t>["Reduced industrial emissions, lower resource consumption, cost savings for consumers and industries, and improved efficiency across the supply chain."]</t>
-  </si>
-  <si>
-    <t>["Reduction in resource use and emissions, cost savings for consumers, increased accessibility to products, and fostering a circular economy through more efficient use of materials."]</t>
-  </si>
-  <si>
-    <t>["Significant emissions reductions, resource conservation, cost savings for consumers, and strengthened circular economy practices."]</t>
-  </si>
-  <si>
-    <t>["Reduction in demand for new concrete and cement production, reduced emissions, enhanced resource efficiency, and increased affordability and sustainability of infrastructure."]</t>
-  </si>
-  <si>
-    <t>["Enhances societal well-being by reducing overconsumption, lowering environmental impacts, and fostering long-term sustainability in resource use and industrial processes."]</t>
-  </si>
-  <si>
-    <t>["Reduction in global GHG emissions, improved resource efficiency, enhanced sustainability in consumption patterns, and reduced strain on environmental resources."]</t>
-  </si>
-  <si>
-    <t>["Preserves biodiversity, enhances ecosystem services, improves air and water quality, and contributes to climate stabilization and sustainable development."]</t>
-  </si>
-  <si>
-    <t>["Increased carbon sequestration, improved biodiversity, enhanced ecosystem resilience, better water regulation, soil stabilization, and support for local communities through sustainable resource use."]</t>
-  </si>
-  <si>
-    <t>["Improved forest health and resilience, enhanced carbon sequestration, biodiversity conservation, and increased ecosystem services like water and soil regulation."]</t>
-  </si>
-  <si>
-    <t>["Reduced GHG emissions, improved biodiversity conservation, prevention of soil erosion, enhanced land productivity, and reduced risks to life and property from uncontrolled wildfires."]</t>
-  </si>
-  <si>
-    <t>["Preserves ecosystem services, enhances biodiversity, supports climate resilience, and provides sustainable livelihoods for communities dependent on grasslands."]</t>
-  </si>
-  <si>
-    <t>["Reduced GHG emissions, enhanced biodiversity, improved water regulation, and decreased fire-related health hazards."]</t>
-  </si>
-  <si>
-    <t>["Significant reductions in CO2 emissions, improved biodiversity, enhanced water regulation, reduced flooding risks, and increased resilience to climate change."]</t>
-  </si>
-  <si>
-    <t>["Increased carbon sequestration, enhanced resilience to climate impacts, improved biodiversity, better water quality, and greater protection against flooding and storm surges."]</t>
-  </si>
-  <si>
-    <t>["Enhanced ecosystem resilience, improved carbon sequestration, protection against sea-level rise and storms, increased biodiversity, and strengthened coastal livelihoods and food security."]</t>
-  </si>
-  <si>
-    <t>["Enhanced soil health, improved water retention, increased crop yields, greater biodiversity, reduced erosion, and resilience to climate change in agricultural and grassland ecosystems."]</t>
-  </si>
-  <si>
-    <t>["Improved agricultural productivity, enhanced soil resilience to climate change, reduced pollution, and long-term carbon storage in soils, contributing to global climate goals."]</t>
-  </si>
-  <si>
-    <t>["Enhanced land productivity, improved livelihoods, increased carbon storage, better water quality, and resilience to climate change."]</t>
-  </si>
-  <si>
-    <t>["Reduction in global agricultural methane emissions, improved livestock productivity, and enhanced food security, particularly in regions with high agricultural dependence."]</t>
-  </si>
-  <si>
-    <t>["Reduced greenhouse gas emissions, improved water use efficiency, enhanced drought resilience, increased farm income, and more sustainable agricultural practices contributing to food security."]</t>
-  </si>
-  <si>
-    <t>["Contributes to climate mitigation, improves food and nutrition security, enhances environmental sustainability, and supports long-term agricultural productivity."]</t>
-  </si>
-  <si>
-    <t>["Reduces greenhouse gas emissions, improves local water and air quality, enhances soil health, supports food security, and provides renewable energy through biogas production."]</t>
-  </si>
-  <si>
-    <t>["Enhanced energy security, reduced GHG emissions, restored degraded lands, improved air and water quality, and biodiversity conservation."]</t>
-  </si>
-  <si>
-    <t>["Improved public health outcomes, reduced environmental pressures (e.g., deforestation, biodiversity loss), and strengthened food security through sustainable practices."]</t>
-  </si>
-  <si>
-    <t>["Enhances food security, reduces environmental stress on water and land resources, supports poverty alleviation, and contributes to achieving SDG 12 for sustainable consumption and production patterns."]</t>
-  </si>
-  <si>
-    <t>["Reduces emissions from traditional material production, enhances carbon sequestration, supports sustainable forest industries, and provides economic opportunities in rural and forested areas."]</t>
-  </si>
-  <si>
-    <t>["Reduced GHG emissions, improved public health, better urban livability, reduced resource consumption, and preservation of land for agriculture and forestry."]</t>
-  </si>
-  <si>
-    <t>["Reduces GHG emissions, improves air quality, enhances urban livability, and fosters more sustainable urban growth patterns."]</t>
-  </si>
-  <si>
-    <t>["Enhanced livability, improved public health, reduced energy use, increased resilience to climate impacts, and promotion of green economic growth."]</t>
-  </si>
-  <si>
-    <t>["Enhances energy security, reduces urban air pollution, improves public health, and supports sustainable urban development through renewable energy and electrification."]</t>
-  </si>
-  <si>
-    <t>["Reduced GHG emissions from construction, enhanced carbon storage in urban environments, sustainable urbanization, improved resource efficiency, and reduced pressure on natural ecosystems."]</t>
-  </si>
-  <si>
-    <t>["Enhanced urban livability, improved public health, reduced energy consumption, increased biodiversity, and greater resilience to climate change impacts."]</t>
-  </si>
-  <si>
-    <t>["Enhanced urban livability, reduced urban heat island effects, improved public health, better stormwater management, and increased biodiversity in urban areas."]</t>
-  </si>
-  <si>
-    <t>["Reduces urban energy use, improves public health, enhances urban livability, and fosters community engagement through better connectivity and accessibility."]</t>
-  </si>
-  <si>
-    <t>["Improved urban livability, reduction in landfill emissions, enhanced resource efficiency, and economic growth through job creation in the waste management sector."]</t>
-  </si>
-  <si>
     <t>medium</t>
   </si>
   <si>
@@ -2312,17 +1586,741 @@
   </si>
   <si>
     <t>BehavioralChangeTargeted</t>
+  </si>
+  <si>
+    <t>["Policy support for land-use planning", "public acceptance", "reallocation of transport budgets towards sustainable modes"]</t>
+  </si>
+  <si>
+    <t>["Investment in safe walking and cycling infrastructure", "public awareness campaigns", "supportive urban planning policies"]</t>
+  </si>
+  <si>
+    <t>["Investments in modern and efficient transit systems", "policies to disincentivize private car use", "public awareness campaigns to encourage public transit adoption"]</t>
+  </si>
+  <si>
+    <t>["Technological innovation", "adoption of circular economy practices", "behavioral shifts towards minimalism and efficiency"]</t>
+  </si>
+  <si>
+    <t>["Development of efficient shared mobility platforms", "supportive urban policies", "technological advancements in ride-sharing systems"]</t>
+  </si>
+  <si>
+    <t>["Widespread access to high-speed internet", "supportive organizational policies", "employee willingness to adopt teleworking"]</t>
+  </si>
+  <si>
+    <t>["Widespread adoption of ICT and IoT technologies", "supportive urban planning", "investments in shared and digitalized mobility systems"]</t>
+  </si>
+  <si>
+    <t>["Access to advanced logistics tools and software", "collaboration between supply chain stakeholders", "integration of eco-driving training"]</t>
+  </si>
+  <si>
+    <t>["Expansion of e-commerce platforms", "investments in last-mile delivery logistics", "consumer trust in online shopping"]</t>
+  </si>
+  <si>
+    <t>["Development and deployment of autonomous vehicle technologies", "supportive regulatory frameworks", "public acceptance of automated systems"]</t>
+  </si>
+  <si>
+    <t>["Development of low-cost and sustainable production technologies", "supportive policy measures (e.g., fuel standards, blending mandates)", "investment in distribution and storage infrastructure"]</t>
+  </si>
+  <si>
+    <t>["Dependence on advancements in battery technologies", "development of charging infrastructure", "policies for subsidies and incentives", "integration with renewable energy sources for electricity generation"]</t>
+  </si>
+  <si>
+    <t>["Hydrogen production infrastructure", "availability of low-carbon hydrogen", "cost reductions in fuel cell systems", "durable policies to support adoption"]</t>
+  </si>
+  <si>
+    <t>["Availability and development of advanced lightweight materials", "efficient recycling processes", "industry-scale implementation"]</t>
+  </si>
+  <si>
+    <t>["Development and deployment of advanced vehicle technologies", "regulatory frameworks", "consumer acceptance"]</t>
+  </si>
+  <si>
+    <t>["Driver education", "effective training programs", "policy support", "incentive mechanisms", "encourage adoption of eco-driving practices"]</t>
+  </si>
+  <si>
+    <t>["Development and adoption of advanced aircraft technology", "global air traffic management optimization", "industry investments in research and development"]</t>
+  </si>
+  <si>
+    <t>["Availability of low-carbon energy", "advancements in fuel production technologies", "cost reductions", "policy support", "infrastructure for production and distribution"]</t>
+  </si>
+  <si>
+    <t>["Requires significant investments in HSR infrastructure", "policy support to limit competing air travel options", "integration of rail networks with existing transportation systems"]</t>
+  </si>
+  <si>
+    <t>["Availability of low-carbon fuels and energy", "infrastructure investments", "retrofitting capabilities for existing ships", "policy and regulatory support", "advances in fuel storage and safety technologies"]</t>
+  </si>
+  <si>
+    <t>["Availability of low-carbon electricity", "advancements in battery technology", "infrastructure for charging and maintenance", "supportive regulatory frameworks for the maritime industry"]</t>
+  </si>
+  <si>
+    <t>["Availability of low-carbon fuels", "advancements in propulsion and hull design technologies", "investments in port infrastructure", "regulatory support for energy efficiency and emissions reductions"]</t>
+  </si>
+  <si>
+    <t>["Availability of advanced technologies", "supportive regulatory frameworks", "investment in research and development", "alignment with global standards for emissions reduction and energy efficiency"]</t>
+  </si>
+  <si>
+    <t>["Availability of advanced fuel delivery systems", "supportive policy frameworks", "investment in R&amp;D for alternative reductants", "industry-wide adoption of optimized process controls and technologies"]</t>
+  </si>
+  <si>
+    <t>["Availability of advanced furnace designs", "supportive policies and incentives", "skilled workforce for installation and maintenance", "industry-wide adoption of energy-efficient technologies"]</t>
+  </si>
+  <si>
+    <t>["Availability of advanced heat recovery and pump technologies", "skilled workforce for installation and maintenance", "policy support for adoption of waste heat recovery systems"]</t>
+  </si>
+  <si>
+    <t>["Development and deployment of advanced process integration technologies", "skilled workforce training", "supportive policies to incentivize adoption"]</t>
+  </si>
+  <si>
+    <t>["Development of advanced comminution and ore sorting technologies", "availability of renewable energy sources for power generation", "policy support to incentivize adoption"]</t>
+  </si>
+  <si>
+    <t>["Availability of advanced drying/dewatering technologies", "skilled workforce for implementation", "supportive policies or incentives to offset initial costs"]</t>
+  </si>
+  <si>
+    <t>["Availability of recycling infrastructure", "advanced technologies for material separation and recovery", "supportive policies for incentivizing recycling practices"]</t>
+  </si>
+  <si>
+    <t>["Availability of advanced technologies like sensors and machine learning systems", "adequate digital infrastructure", "supportive policies for energy efficiency adoption"]</t>
+  </si>
+  <si>
+    <t>["Availability of renewable fuel infrastructure", "technology development for alternative fuel production", "supportive policies"]</t>
+  </si>
+  <si>
+    <t>["Availability of low-carbon electricity", "development of suitable anode materials", "infrastructure for large-scale electrification in steel production"]</t>
+  </si>
+  <si>
+    <t>["Availability of advanced heat recovery technologies", "skilled workforce for installation and operation", "supportive policies and funding incentives"]</t>
+  </si>
+  <si>
+    <t>["Development of advanced process technologies", "regulatory support for adoption", "workforce training", "sufficient financial incentives or subsidies to offset high initial costs"]</t>
+  </si>
+  <si>
+    <t>["Access to biomass resources", "skilled workforce for CHP system operation", "supportive policies to incentivize adoption of CHP systems"]</t>
+  </si>
+  <si>
+    <t>["Requires advancements in CCS and CCU technologies", "availability of low-GHG electricity", "supportive policies to incentivize industrial decarbonization"]</t>
+  </si>
+  <si>
+    <t>["Availability of clean energy for hydrogen production", "development of CCU technologies", "policies to support adoption"]</t>
+  </si>
+  <si>
+    <t>["Requires the development of CO2 transport and storage infrastructure", "supportive policy frameworks", "sufficient clean energy for capture processes", "incentives for adoption"]</t>
+  </si>
+  <si>
+    <t>["Availability of advanced materials", "supportive policies for circular economy", "stakeholder collaboration across supply chains", "investment in R&amp;D for lightweight materials", "high-efficiency design methods"]</t>
+  </si>
+  <si>
+    <t>["Availability of advanced manufacturing technologies", "workforce training", "supportive regulations", "access to materials for near-net shape casting"]</t>
+  </si>
+  <si>
+    <t>["Collaboration across supply chains", "advances in recycling and remanufacturing technologies", "supportive policy frameworks to incentivize adoption"]</t>
+  </si>
+  <si>
+    <t>["Effective coordination between industries, governments, and communities", "supportive policies and regulations", "development of recycling infrastructure", "data sharing platforms for material and energy flows"]</t>
+  </si>
+  <si>
+    <t>["Development and availability of alternative feedstocks", "regulatory support for material substitution", "investment in research and development for innovative concrete applications"]</t>
+  </si>
+  <si>
+    <t>["Availability of infrastructure for waste collection and recycling", "public awareness campaigns", "supportive policy frameworks"]</t>
+  </si>
+  <si>
+    <t>["Requires clear guidelines", "consumer education campaigns", "industry compliance with precise dosing recommendations"]</t>
+  </si>
+  <si>
+    <t>["Development of platforms and systems to facilitate product sharing", "stakeholder collaboration", "supportive policies to incentivize shared usage models"]</t>
+  </si>
+  <si>
+    <t>["Requires collaboration across material supply chains", "advancements in product design", "supportive policy frameworks to incentivize circular economy practices"]</t>
+  </si>
+  <si>
+    <t>["Development of advanced maintenance techniques", "effective policies to promote longer building lifespans", "education for construction professionals on durable practices"]</t>
+  </si>
+  <si>
+    <t>["Public awareness campaigns", "supportive policies", "integration of sustainability into business and governmental frameworks"]</t>
+  </si>
+  <si>
+    <t>["Implementation of policies and programs promoting sustainable consumption", "availability of alternatives to high-emission activities", "societal support for behavioral and lifestyle changes"]</t>
+  </si>
+  <si>
+    <t>["Requires improved governance", "clear land tenure policies", "funding for protected areas", "community participation in forest conservation efforts"]</t>
+  </si>
+  <si>
+    <t>["Requires funding for land restoration", "access to suitable species for planting", "local community engagement", "monitoring systems for ecosystem integrity and carbon sequestration"]</t>
+  </si>
+  <si>
+    <t>["Requires expertise in sustainable forestry", "investment in nurseries with adapted species", "supportive policies", "incentives to overcome economic barriers", "ensure accessibility for local stakeholders"]</t>
+  </si>
+  <si>
+    <t>["Effective governance frameworks", "access to research and technology for fire management", "community engagement", "alignment with regional legal and policy frameworks"]</t>
+  </si>
+  <si>
+    <t>["Strong policy frameworks", "financial incentives for conservation", "collaboration between governments", "local communities", "landowners to implement sustainable practices"]</t>
+  </si>
+  <si>
+    <t>["Requires strong governance", "financial support", "international cooperation", "policies to control land conversion drivers", "such as agriculture", "mining", "urban development"]</t>
+  </si>
+  <si>
+    <t>["Availability of funding", "collaboration among local and national stakeholders", "scientific research on optimal restoration practices", "policies to incentivize restoration efforts"]</t>
+  </si>
+  <si>
+    <t>["Effective integration of coastal climate mitigation policies", "marine spatial planning", "economic incentives to prioritize wetland conservation"]</t>
+  </si>
+  <si>
+    <t>["Requires long-term commitments", "supportive policies", "funding", "monitoring frameworks", "technical capacity", "to address drivers of degradation", "ensure restoration success"]</t>
+  </si>
+  <si>
+    <t>["Success depends on the availability of resources for monitoring and verification", "regional adaptation of practices", "addressing barriers such as soil saturation and permanence issues"]</t>
+  </si>
+  <si>
+    <t>["Availability of sustainably sourced biomass", "standardization of production methods", "monitoring systems", "incentives for scaling up biochar production and application"]</t>
+  </si>
+  <si>
+    <t>["Requires access to appropriate germplasm", "supportive policies", "extension systems", "credit access", "reforms in land tenure systems", "Adoption depends on aligning agroforestry practices to biophysical and socio-economic contexts"]</t>
+  </si>
+  <si>
+    <t>["Development and regulatory approval of feed additives, vaccines, and inhibitors", "regional adaptation of mitigation strategies", "overcoming barriers like costs, infrastructure, and public acceptance"]</t>
+  </si>
+  <si>
+    <t>["Adequate irrigation infrastructure", "training for farmers on advanced techniques", "access to slow-release fertilisers and biochar", "coordinated water management practices among neighboring farmers and regions"]</t>
+  </si>
+  <si>
+    <t>["Availability of training and technical support for farmers", "development of regional nutrient management roadmaps", "access to affordable fertilizers and inhibitors"]</t>
+  </si>
+  <si>
+    <t>["Development of cost-effective anaerobic digestion systems", "supportive policies for nitrification inhibitors", "region-specific training programs", "accessible financing for farmers"]</t>
+  </si>
+  <si>
+    <t>["Requires sustainable land management", "advanced bioenergy technology development", "infrastructure for carbon capture and storage", "global governance for trade and supply chains"]</t>
+  </si>
+  <si>
+    <t>["Implementation of integrated food-system policies", "financial incentives for sustainable agriculture", "awareness campaigns", "the development of local food systems to support dietary transitions"]</t>
+  </si>
+  <si>
+    <t>["Adequate infrastructure for food storage and transportation", "policy frameworks for waste reduction", "financial incentives", "widespread consumer education to change behaviors"]</t>
+  </si>
+  <si>
+    <t>["Requires sustainable forest management practices", "advanced wood processing technologies", "market demand for wood substitutes", "global cooperation to prevent resource exploitation"]</t>
+  </si>
+  <si>
+    <t>["Requires integrated spatial planning", "infrastructure development", "zoning regulations", "public transport investment"]</t>
+  </si>
+  <si>
+    <t>["Requires effective urban planning", "policy support for mixed land use", "investment in public transit infrastructure", "cooperation across municipal agencies"]</t>
+  </si>
+  <si>
+    <t>["High institutional capacity for cross-sector collaboration", "advanced GIS tools for spatial planning", "stakeholder engagement for co-design processes"]</t>
+  </si>
+  <si>
+    <t>["Requires grid upgrades", "supportive policies", "stakeholder cooperation", "financial incentives", "public awareness campaigns", "access to renewable energy", "advanced storage technologies is critical"]</t>
+  </si>
+  <si>
+    <t>['Sustainable forestry management', 'international carbon accounting standards', 'development of mass timber technologies', 'robust forest and urban land governance policies', 'incentivized afforestation practices']</t>
+  </si>
+  <si>
+    <t>["Availability of land for planting", "community participation", "funding for maintenance", "policies supporting urban greening initiatives"]</t>
+  </si>
+  <si>
+    <t>["Requires local government coordination", "community engagement", "urban planning integration", "adequate funding for infrastructure development and maintenance"]</t>
+  </si>
+  <si>
+    <t>["Requires integrated urban planning", "investment in active transport infrastructure", "collaboration between urban and transportation planners", "community engagement"]</t>
+  </si>
+  <si>
+    <t>["Requires institutional capacity", "governance", "cross-sectoral coordination", "public awareness campaigns", "needs infrastructure for decentralized waste treatment", "policies to promote circular economy practices"]</t>
+  </si>
+  <si>
+    <t>["Reduction in per capita car use", "increase in public transport ridership", "improved walkability index"]</t>
+  </si>
+  <si>
+    <t>["Increase in kilometers of bicycle and walking networks", "rise in active transport modal share", "reduction in car usage for short trips"]</t>
+  </si>
+  <si>
+    <t>["Increase in public transit ridership", "reduction in private vehicle kilometers traveled", "emissions reduction per passenger kilometer"]</t>
+  </si>
+  <si>
+    <t>["Reduction in material intensity per unit output", "decrease in freight transport emissions", "increased adoption of circular economy practices"]</t>
+  </si>
+  <si>
+    <t>["Increase in shared mobility trips", "reduction in private vehicle kilometers traveled", "decreased transport-related emissions"]</t>
+  </si>
+  <si>
+    <t>["Reduction in commuter trips", "increase in teleworking adoption rates", "decreased transport-related emissions"]</t>
+  </si>
+  <si>
+    <t>["Increase in shared and public transport use", "reduction in private vehicle kilometers traveled", "decreased transport-related emissions"]</t>
+  </si>
+  <si>
+    <t>["Reduced freight distances", "increased vehicle carrying capacity", "improved fuel efficiency", "reduced operating costs"]</t>
+  </si>
+  <si>
+    <t>["Reduction in vehicle kilometers traveled (VMT) for shopping", "increase in online shopping adoption rates", "emissions reductions in freight logistics"]</t>
+  </si>
+  <si>
+    <t>["Reduction in congestion", "improved fuel efficiency", "decreased transport-related emissions per vehicle kilometer", "increased accessibility for marginalized groups"]</t>
+  </si>
+  <si>
+    <t>["Reduction in GHG emissions from fuel lifecycle", "percentage of vehicle fleet using alternative fuels", "infrastructure deployment metrics"]</t>
+  </si>
+  <si>
+    <t>["Percentage of electric vehicles in the vehicle fleet", "reduction in GHG emissions per kilometer traveled", "availability of charging infrastructure"]</t>
+  </si>
+  <si>
+    <t>["Share of fuel cell vehicles in the vehicle fleet", "reduction in GHG emissions per kilometer", "deployment of hydrogen refueling stations", "cost parity with diesel vehicles"]</t>
+  </si>
+  <si>
+    <t>["Reduction in vehicle mass", "improvement in fuel efficiency (km/l)", "lifecycle GHG emissions avoided", "share of lightweighted vehicles in the fleet"]</t>
+  </si>
+  <si>
+    <t>["Improvements in fuel economy (km/l)", "reduction in GHG emissions per km", "share of energy-efficient vehicles in fleets", "fuel cost savings"]</t>
+  </si>
+  <si>
+    <t>["Percentage reduction in fuel consumption", "GHG emissions per vehicle", "number of drivers trained in eco-driving", "adherence to eco-driving practices among trained drivers"]</t>
+  </si>
+  <si>
+    <t>["Percentage reduction in fuel consumption per flight", "improvement in navigation efficiency", "adoption rate of advanced aircraft designs"]</t>
+  </si>
+  <si>
+    <t>["Adoption rates of SAFs", "lifecycle emissions reductions", "advancements in fuel production technologies"]</t>
+  </si>
+  <si>
+    <t>["Reduction in domestic and regional air travel demand", "increase in HSR ridership", "measurable reductions in transportation sector GHG emissions"]</t>
+  </si>
+  <si>
+    <t>["Adoption rate of alternative fuels", "emissions reductions achieved (tank-to-wake and well-to-wake)", "advancements in bunkering and storage infrastructure"]</t>
+  </si>
+  <si>
+    <t>["Reduction in lifecycle emissions of vessels", "number of electric and hybrid-electric ships in operation", "improvements in port infrastructure to support electric propulsion systems"]</t>
+  </si>
+  <si>
+    <t>["Reduction in shipping emissions", "adoption rate of energy-efficient technologies", "operational measures", "number of retrofitted vessels", "efficiency improvements in port operations"]</t>
+  </si>
+  <si>
+    <t>["Reduction in industrial GHG emissions", "adoption rates of heat and energy recovery technologies", "energy intensity improvements in key industries", "recycling rates"]</t>
+  </si>
+  <si>
+    <t>["Reduction in GHG emissions from heating in steel production", "energy intensity improvements", "increased adoption rates of pulverized coal injection and alternative fuels", "reduced production of hazardous wastes"]</t>
+  </si>
+  <si>
+    <t>["Reduction in energy intensity", "GHG emissions", "hazardous waste production", "increased adoption of advanced furnaces", "process controls"]</t>
+  </si>
+  <si>
+    <t>["Increase in waste heat recovery rate", "reduction in energy intensity", "percentage of heat reused through high-efficiency systems"]</t>
+  </si>
+  <si>
+    <t>["Reduction in energy consumption per unit of steel", "increase in process coupling efficiency", "reduction in GHG emissions per ton of steel produced"]</t>
+  </si>
+  <si>
+    <t>["Reduction in energy consumption per ton of ore processed", "improvement in ore recovery ratio", "reduction in GHG emissions from mining operations"]</t>
+  </si>
+  <si>
+    <t>["Reduction in energy consumption per unit of output", "percentage improvement in drying efficiency", "reduction in GHG emissions from manufacturing processes"]</t>
+  </si>
+  <si>
+    <t>["Recycling rates by material type", "reduction in energy consumption for material production", "decrease in landfill waste volumes"]</t>
+  </si>
+  <si>
+    <t>["Reduction in energy use", "cost savings per production cycle", "percentage improvement in process efficiency"]</t>
+  </si>
+  <si>
+    <t>["Reduction in CO2 emissions", "increased adoption rate of renewable fuels", "reduction in the carbon intensity of industrial processes"]</t>
+  </si>
+  <si>
+    <t>["Reduction in emissions per ton of steel produced", "increase in the share of electrified processes", "energy savings in production stages"]</t>
+  </si>
+  <si>
+    <t>["Reduction in energy consumption per ton of product", "increase in waste energy recovery rates", "decrease in GHG emissions intensity in industrial processes"]</t>
+  </si>
+  <si>
+    <t>["Reduction in energy use per unit of production", "lower emissions per ton of material produced", "increased adoption rate of advanced technologies", "improved process efficiency metrics"]</t>
+  </si>
+  <si>
+    <t>["Reduction in energy intensity per ton of paper", "decrease in direct and indirect CO2 emissions", "increase in on-site electricity production through CHP systems"]</t>
+  </si>
+  <si>
+    <t>["Reduction in GHG emissions from industrial processes", "increase in the use of low-carbon feedstocks", "the number of CCS/CCU projects implemented"]</t>
+  </si>
+  <si>
+    <t>["Quantity of CO2 captured and reused", "reduction in emissions per ton of product", "market penetration of CCU-derived products"]</t>
+  </si>
+  <si>
+    <t>["Amount of CO2 captured and stored annually", "percentage reduction in industrial emissions", "operational capacity of CCS projects globally"]</t>
+  </si>
+  <si>
+    <t>["Reduction in material usage per product", "increase in product lifespan", "percentage of materials recovered and reused", "reduction in GHG emissions from production processes"]</t>
+  </si>
+  <si>
+    <t>["Reduction in material waste", "increase in production yield", "reduction in GHG emissions per unit of material produced"]</t>
+  </si>
+  <si>
+    <t>["Percentage of materials recovered and reused", "reduction in production waste", "decrease in GHG emissions per unit of product lifecycle"]</t>
+  </si>
+  <si>
+    <t>["Reduction in virgin material use", "GHG emissions avoided through CE practices", "increase in recycling rates", "number of industrial symbiosis networks implemented", "resource recovery metrics"]</t>
+  </si>
+  <si>
+    <t>["Reduction in clinker-to-cement ratio", "lower CO2 emissions per tonne of cement", "increased adoption of alternative materials in cement production"]</t>
+  </si>
+  <si>
+    <t>["Reduction in food waste percentage", "increased recycling rates", "reduced greenhouse gas emissions from waste management"]</t>
+  </si>
+  <si>
+    <t>["Reduction in material waste", "increased adherence to dosing guidelines", "measurable decreases in associated emissions"]</t>
+  </si>
+  <si>
+    <t>["Number of shared product-service systems implemented", "reduction in material demand per capita", "decrease in GHG emissions from product manufacturing"]</t>
+  </si>
+  <si>
+    <t>["Reduction in material use per product", "increase in product lifespan", "rate of reuse and repair", "reduction in GHG emissions from material production and waste"]</t>
+  </si>
+  <si>
+    <t>["Increase in the average lifespan of buildings and infrastructure", "reduction in cement demand per capita", "overall CO2 emissions reductions in cement production"]</t>
+  </si>
+  <si>
+    <t>["Reduction in material and energy intensity per capita", "decrease in waste generation rates", "improvement in recycling and reuse statistics"]</t>
+  </si>
+  <si>
+    <t>["Reduction in demand for high-emission products and services", "decreased industrial emissions linked to product use", "increased adoption of sustainable consumption practices"]</t>
+  </si>
+  <si>
+    <t>["Reduction in deforestation rates", "increased forest cover", "the amount of GHG emissions avoided per year"]</t>
+  </si>
+  <si>
+    <t>["Area of land reforested or afforested", "carbon sequestration rates", "improvement in biodiversity indices", "ecosystem service metrics such as water regulation and soil quality"]</t>
+  </si>
+  <si>
+    <t>["Increase in forest carbon stocks", "reduction in GHG emissions", "improvements in biodiversity indicators", "reduction in soil erosion and water-related issues"]</t>
+  </si>
+  <si>
+    <t>["Reduction in frequency and intensity of uncontrolled wildfires", "Area managed with prescribed burns", "Reduction in GHG emissions from fires", "Improvement in biodiversity and soil health metrics"]</t>
+  </si>
+  <si>
+    <t>["Reduction in conversion rates of grasslands", "increase in soil organic carbon levels", "measurable reduction in GHG emissions from targeted areas"]</t>
+  </si>
+  <si>
+    <t>["Reduction in peatland conversion rates", "avoided emissions per hectare", "improvements in biodiversity and water quality metrics"]</t>
+  </si>
+  <si>
+    <t>["Area of coastal wetlands preserved", "GHG emissions avoided from biomass and soil carbon loss", "improvements in biodiversity metrics", "ecosystem resilience"]</t>
+  </si>
+  <si>
+    <t>["Area of wetlands restored", "carbon sequestration rates", "biodiversity recovery metrics", "reduction in storm damage costs", "water quality improvements"]</t>
+  </si>
+  <si>
+    <t>["Increase in soil organic carbon", "reduction in GHG emissions", "improvement in agricultural productivity", "biodiversity enhancements"]</t>
+  </si>
+  <si>
+    <t>["Carbon sequestration rates", "reduction in soil N2O emissions", "crop yield improvements", "displacement of fossil fuel use through pyrolysis gases"]</t>
+  </si>
+  <si>
+    <t>["Carbon sequestration rates (above and below ground)", "improved soil health metrics", "increase in farmer income", "reduction in soil erosion", "adoption rates of agroforestry systems"]</t>
+  </si>
+  <si>
+    <t>["Reduction in CH4 emissions per animal", "adoption rates of improved feeding practices", "increase in production efficiency per unit of livestock product"]</t>
+  </si>
+  <si>
+    <t>["Reduction in CH4 and N2O emissions per hectare", "increased water use efficiency", "yield stability during droughts", "adoption rate of improved rice cultivation techniques"]</t>
+  </si>
+  <si>
+    <t>["Reduction in N2O emissions", "improvement in crop yields", "increase in soil carbon sequestration", "reduction in fertilizer use per hectare"]</t>
+  </si>
+  <si>
+    <t>["Reduction in CH4 and N2O emissions from manure storage", "increased adoption of anaerobic digestion systems", "improved nitrogen use efficiency", "enhanced biogas production"]</t>
+  </si>
+  <si>
+    <t>["Amount of carbon removed through BECCS (in GtCO2 per year)", "total energy produced from bioenergy", "land restored for biomass production", "GHG emissions reduction from displaced fossil fuel use"]</t>
+  </si>
+  <si>
+    <t>["Reduction in GHG emissions from food production", "reduction in land use for livestock", "increase in plant-based food consumption", "improvement in public health metrics related to diet-related diseases"]</t>
+  </si>
+  <si>
+    <t>["Reduction in food waste percentages at consumer and business levels", "decrease in land used for agricultural production", "measurable GHG emission reductions across the food supply chain"]</t>
+  </si>
+  <si>
+    <t>["Increased use of wood products in construction", "reduction in GHG emissions from material substitution", "increase in recycled wood product utilization rates"]</t>
+  </si>
+  <si>
+    <t>['Reduction in vehicle miles traveled', 'increase in public transport usage', 'percentage of urban areas with mixed-use development', 'lower per capita energy use in urban areas']</t>
+  </si>
+  <si>
+    <t>["Reduction in VMT", "increase in public transit ridership", "decrease in transport-related GHG emissions", "improved accessibility to jobs and housing"]</t>
+  </si>
+  <si>
+    <t>["Reduction in GHG emissions per capita", "adoption rates of district heating/cooling systems", "proportion of urban population with access to green areas"]</t>
+  </si>
+  <si>
+    <t>["Reduction in GHG emissions per kWh", "increase in renewable energy penetration", "adoption rates of EVs and heat pumps", "improved urban air quality"]</t>
+  </si>
+  <si>
+    <t>["Reduction in embodied carbon in construction", "number of mid-rise urban buildings using engineered timber", "carbon sequestration capacity of urban timber infrastructure", "improvement in sustainable forestry practices"]</t>
+  </si>
+  <si>
+    <t>["Increase in urban tree cover percentage", "reduction in urban heat island effect", "amount of carbon sequestered", "reduction in building energy use", "improvement in air quality metrics"]</t>
+  </si>
+  <si>
+    <t>["Reduction in building energy consumption", "increase in urban green coverage", "stormwater retention rates", "increased active transportation use (cycling/walking)", "improved thermal comfort"]</t>
+  </si>
+  <si>
+    <t>["Reduction in vehicle miles traveled (VMT)", "increase in walking and biking trips", "reduction in urban GHG emissions", "improved accessibility to essential services"]</t>
+  </si>
+  <si>
+    <t>["Reduction in waste generation per capita", "increase in recycling and composting rates", "reduction in CH4 emissions from waste", "employment opportunities created in waste management"]</t>
+  </si>
+  <si>
+    <t>["Improved urban livability", "better public health outcomes", "reduced GHG emissions"]</t>
+  </si>
+  <si>
+    <t>["Improved public health", "reduced urban congestion", "lower transport-related GHG emissions", "enhanced quality of urban life"]</t>
+  </si>
+  <si>
+    <t>["Enhanced urban livability", "reduced traffic congestion", "improved public health", "significant reductions in transport-related greenhouse gas emissions"]</t>
+  </si>
+  <si>
+    <t>["Improved resource efficiency", "lower environmental footprint", "potential for reduced transport emissions"]</t>
+  </si>
+  <si>
+    <t>["Enhanced urban mobility", "reduced traffic congestion", "lower transport emissions", "increased system efficiency"]</t>
+  </si>
+  <si>
+    <t>["Reduced traffic congestion", "improved air quality", "enhanced work-life balance", "lower transport emissions"]</t>
+  </si>
+  <si>
+    <t>["Enhanced urban livability", "reduced congestion", "improved air quality", "significant advancements in transport efficiency"]</t>
+  </si>
+  <si>
+    <t>["Reduced operating costs", "improved corporate image", "enhanced transport infrastructure utilisation", "potential air quality improvement"]</t>
+  </si>
+  <si>
+    <t>["Improved urban mobility", "reduced shopping-related travel emissions", "enhanced convenience for consumers"]</t>
+  </si>
+  <si>
+    <t>["Enhanced road safety", "reduced traffic congestion", "increased accessibility for underserved populations", "optimization of transport systems for environmental and societal benefit"]</t>
+  </si>
+  <si>
+    <t>["Reduced GHG emissions", "improved air quality", "energy diversification", "increased resilience in transportation systems"]</t>
+  </si>
+  <si>
+    <t>["Reduced GHG emissions", "improved urban air quality", "decreased reliance on fossil fuels", "greater energy security"]</t>
+  </si>
+  <si>
+    <t>["Reduced GHG emissions", "improved air quality", "energy diversification", "advancement of clean technologies for transportation"]</t>
+  </si>
+  <si>
+    <t>['Reduced GHG emissions', 'enhanced fuel efficiency', 'improved vehicle performance', 'contribution to a circular economy through advanced recycling']</t>
+  </si>
+  <si>
+    <t>["Reduced GHG emissions", "enhanced fuel efficiency", "lower operating costs", "improved air quality"]</t>
+  </si>
+  <si>
+    <t>["Reduced GHG emissions", "enhanced fuel efficiency", "improved road safety", "lower transport costs"]</t>
+  </si>
+  <si>
+    <t>["Reduced GHG emissions", "enhanced operational efficiency", "strengthened energy security in aviation"]</t>
+  </si>
+  <si>
+    <t>["Significant reductions in aviation emissions", "improved energy security", "progress toward net-zero aviation operations"]</t>
+  </si>
+  <si>
+    <t>["Reduces aviation emissions", "improves regional connectivity", "decreases transportation-related air pollution", "enhances public transportation networks"]</t>
+  </si>
+  <si>
+    <t>["Significant reductions in maritime emissions", "improved air quality", "progress toward global decarbonization goals", "reduced reliance on fossil fuels in the shipping industry"]</t>
+  </si>
+  <si>
+    <t>["Significant reduction in maritime sector emissions", "Improved air quality in coastal and port regions", "Decreased reliance on fossil fuels", "Promotion of innovation in clean transportation technologies"]</t>
+  </si>
+  <si>
+    <t>["Reduction in maritime emissions", "improved air and water quality", "increased energy security", "enhanced innovation in sustainable shipping technologies"]</t>
+  </si>
+  <si>
+    <t>["Significant reductions in industrial emissions", "improved resource efficiency", "enhanced energy security", "increased sustainability in manufacturing and construction sectors"]</t>
+  </si>
+  <si>
+    <t>["Significant reductions in emissions and energy use in steel manufacturing", "improved air quality", "enhanced energy security", "more sustainable industrial practices"]</t>
+  </si>
+  <si>
+    <t>["Significant improvements in industrial energy efficiency", "reduced emissions", "cost savings for manufacturers", "enhanced air quality"]</t>
+  </si>
+  <si>
+    <t>["Significant reductions in industrial energy consumption and GHG emissions", "enhanced energy security", "cost savings for manufacturers", "reduced environmental waste"]</t>
+  </si>
+  <si>
+    <t>["Improved energy efficiency", "reduced emissions", "cost savings for manufacturers", "enhanced competitiveness of the steel industry in global markets"]</t>
+  </si>
+  <si>
+    <t>["Improved energy efficiency in mining", "reduced operational costs", "decreased environmental footprint of mining activities", "enhanced resource utilization"]</t>
+  </si>
+  <si>
+    <t>["Increased energy efficiency", "reduced operational costs", "lower emissions", "enhanced sustainability in industrial processes"]</t>
+  </si>
+  <si>
+    <t>["Reduces reliance on virgin material extraction", "lowers industrial energy demand", "mitigates GHG emissions", "supports sustainable production practices"]</t>
+  </si>
+  <si>
+    <t>["Enhanced energy efficiency", "reduced operational costs", "improved industrial competitiveness", "support for decarbonization goals"]</t>
+  </si>
+  <si>
+    <t>["Reduced dependence on fossil fuels", "improved energy security", "mitigation of air pollution", "contributing to global emission reduction targets"]</t>
+  </si>
+  <si>
+    <t>["Reduced reliance on fossil fuels", "improved air quality", "enhanced global competitiveness of steel manufacturers"]</t>
+  </si>
+  <si>
+    <t>["Enhances energy efficiency", "reduces emissions", "lowers operational costs", "improves competitiveness of the industrial sector in global markets"]</t>
+  </si>
+  <si>
+    <t>["Enhanced energy efficiency", "significant emissions reductions", "cost savings for industries", "increased competitiveness in global markets", "improved environmental sustainability"]</t>
+  </si>
+  <si>
+    <t>["Improved energy efficiency", "reduced emissions", "enhanced competitiveness of the pulp and paper industry", "long-term cost savings for manufacturers"]</t>
+  </si>
+  <si>
+    <t>["Enhanced industrial sustainability", "reduced dependence on fossil fuels", "advancement of circular economy principles", "mitigation of climate change impacts"]</t>
+  </si>
+  <si>
+    <t>["Reduction in GHG emissions", "enhanced energy security", "development of sustainable industries"]</t>
+  </si>
+  <si>
+    <t>["Significant reductions in GHG emissions", "mitigation of climate change effects", "increased energy security through sustainable industrial practices"]</t>
+  </si>
+  <si>
+    <t>["Reduced environmental footprint", "lower production costs", "improved resource efficiency", "enhanced sustainability of industrial processes"]</t>
+  </si>
+  <si>
+    <t>["Significant reduction in material and energy use", "enhanced production efficiency", "reduced emissions", "improved sustainability across industrial supply chains"]</t>
+  </si>
+  <si>
+    <t>["Reduction in raw material demand", "improved environmental sustainability", "decreased emissions", "enhanced industrial efficiency"]</t>
+  </si>
+  <si>
+    <t>["Significant reductions in resource extraction, energy use, and emissions", "enhanced regional development through eco-industrial parks", "broader adoption of sustainable practices across industries and urban areas"]</t>
+  </si>
+  <si>
+    <t>["Reduced GHG emissions", "enhanced resource efficiency", "lower energy consumption in cement production", "improved environmental quality in cement manufacturing regions"]</t>
+  </si>
+  <si>
+    <t>["Reduced environmental burden", "enhanced resource efficiency", "improved urban livability", "cost savings in waste management systems"]</t>
+  </si>
+  <si>
+    <t>["Reduced industrial emissions", "lower resource consumption", "cost savings for consumers and industries", "improved efficiency across the supply chain"]</t>
+  </si>
+  <si>
+    <t>["Reduction in resource use and emissions", "cost savings for consumers", "increased accessibility to products", "fostering a circular economy through more efficient use of materials"]</t>
+  </si>
+  <si>
+    <t>["Significant emissions reductions", "resource conservation", "cost savings for consumers", "strengthened circular economy practices"]</t>
+  </si>
+  <si>
+    <t>["Reduction in demand for new concrete and cement production", "reduced emissions", "enhanced resource efficiency", "increased affordability and sustainability of infrastructure"]</t>
+  </si>
+  <si>
+    <t>["Enhances societal well-being", "reducing overconsumption", "lowering environmental impacts", "fostering long-term sustainability in resource use", "industrial processes"]</t>
+  </si>
+  <si>
+    <t>["Reduction in global GHG emissions", "improved resource efficiency", "enhanced sustainability in consumption patterns", "reduced strain on environmental resources"]</t>
+  </si>
+  <si>
+    <t>["Preserves biodiversity", "enhances ecosystem services", "improves air and water quality", "contributes to climate stabilization", "sustainable development"]</t>
+  </si>
+  <si>
+    <t>["Increased carbon sequestration", "improved biodiversity", "enhanced ecosystem resilience", "better water regulation", "soil stabilization", "support for local communities through sustainable resource use"]</t>
+  </si>
+  <si>
+    <t>["Improved forest health and resilience", "enhanced carbon sequestration", "biodiversity conservation", "increased ecosystem services like water and soil regulation"]</t>
+  </si>
+  <si>
+    <t>["Reduced GHG emissions", "improved biodiversity conservation", "prevention of soil erosion", "enhanced land productivity", "reduced risks to life and property from uncontrolled wildfires"]</t>
+  </si>
+  <si>
+    <t>["Preserves ecosystem services", "enhances biodiversity", "supports climate resilience", "provides sustainable livelihoods for communities dependent on grasslands"]</t>
+  </si>
+  <si>
+    <t>["Reduced GHG emissions", "enhanced biodiversity", "improved water regulation", "decreased fire-related health hazards"]</t>
+  </si>
+  <si>
+    <t>["Significant reductions in CO2 emissions", "improved biodiversity", "enhanced water regulation", "reduced flooding risks", "increased resilience to climate change"]</t>
+  </si>
+  <si>
+    <t>["Increased carbon sequestration", "enhanced resilience to climate impacts", "improved biodiversity", "better water quality", "greater protection against flooding and storm surges"]</t>
+  </si>
+  <si>
+    <t>["Enhanced ecosystem resilience", "improved carbon sequestration", "protection against sea-level rise and storms", "increased biodiversity", "strengthened coastal livelihoods", "food security"]</t>
+  </si>
+  <si>
+    <t>["Enhanced soil health", "improved water retention", "increased crop yields", "greater biodiversity", "reduced erosion", "resilience to climate change in agricultural and grassland ecosystems"]</t>
+  </si>
+  <si>
+    <t>["Improved agricultural productivity", "enhanced soil resilience to climate change", "reduced pollution", "long-term carbon storage in soils", "contributing to global climate goals"]</t>
+  </si>
+  <si>
+    <t>["Enhanced land productivity", "improved livelihoods", "increased carbon storage", "better water quality", "resilience to climate change"]</t>
+  </si>
+  <si>
+    <t>["Reduction in global agricultural methane emissions", "improved livestock productivity", "enhanced food security", "particularly in regions with high agricultural dependence"]</t>
+  </si>
+  <si>
+    <t>["Reduced greenhouse gas emissions", "improved water use efficiency", "enhanced drought resilience", "increased farm income", "more sustainable agricultural practices", "contributing to food security"]</t>
+  </si>
+  <si>
+    <t>["Contributes to climate mitigation", "improves food and nutrition security", "enhances environmental sustainability", "supports long-term agricultural productivity"]</t>
+  </si>
+  <si>
+    <t>["Reduces greenhouse gas emissions", "improves local water and air quality", "enhances soil health", "supports food security", "provides renewable energy through biogas production"]</t>
+  </si>
+  <si>
+    <t>["Enhanced energy security", "reduced GHG emissions", "restored degraded lands", "improved air and water quality", "biodiversity conservation"]</t>
+  </si>
+  <si>
+    <t>["Improved public health outcomes", "reduced environmental pressures (e.g., deforestation, biodiversity loss)", "strengthened food security through sustainable practices"]</t>
+  </si>
+  <si>
+    <t>["Enhances food security", "reduces environmental stress on water and land resources", "supports poverty alleviation", "contributes to achieving SDG 12 for sustainable consumption and production patterns"]</t>
+  </si>
+  <si>
+    <t>["Reduces emissions from traditional material production", "enhances carbon sequestration", "supports sustainable forest industries", "provides economic opportunities in rural and forested areas"]</t>
+  </si>
+  <si>
+    <t>["Reduced GHG emissions", "improved public health", "better urban livability", "reduced resource consumption", "preservation of land for agriculture and forestry"]</t>
+  </si>
+  <si>
+    <t>["Reduces GHG emissions", "improves air quality", "enhances urban livability", "fosters more sustainable urban growth patterns"]</t>
+  </si>
+  <si>
+    <t>["Enhanced livability", "improved public health", "reduced energy use", "increased resilience to climate impacts", "promotion of green economic growth"]</t>
+  </si>
+  <si>
+    <t>["Enhances energy security", "reduces urban air pollution", "improves public health", "supports sustainable urban development through renewable energy and electrification"]</t>
+  </si>
+  <si>
+    <t>["Reduced GHG emissions from construction", "enhanced carbon storage in urban environments", "sustainable urbanization", "improved resource efficiency", "reduced pressure on natural ecosystems"]</t>
+  </si>
+  <si>
+    <t>["Enhanced urban livability", "improved public health", "reduced energy consumption", "increased biodiversity", "greater resilience to climate change impacts"]</t>
+  </si>
+  <si>
+    <t>["Enhanced urban livability", "reduced urban heat island effects", "improved public health", "better stormwater management", "increased biodiversity in urban areas"]</t>
+  </si>
+  <si>
+    <t>["Reduces urban energy use", "improves public health", "enhances urban livability", "fosters community engagement through better connectivity and accessibility"]</t>
+  </si>
+  <si>
+    <t>["Improved urban livability", "reduction in landfill emissions", "enhanced resource efficiency", "economic growth through job creation in the waste management sector"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2396,36 +2394,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{D975116D-6FA8-43BD-BEAC-648ED712F7D0}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{E9328F65-C0A6-4011-B5D3-626A5546BE07}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2654,9 +2654,6 @@
     <text xml:space="preserve">Every co-benefit has a value 1
 </text>
   </threadedComment>
-  <threadedComment ref="R1" dT="2024-11-25T07:57:17.62" personId="{3B71A11A-A90E-4022-AEAC-3FBF1647287A}" id="{9D5EEA5E-CA47-4003-91AF-82CBBFC75B37}">
-    <text>Needs to be an array of strings [””,””,””]</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2667,8 +2664,8 @@
   </sheetPr>
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2687,8 +2684,8 @@
     <col min="16" max="16" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="30.08984375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="115.36328125" customWidth="1"/>
-    <col min="19" max="19" width="81" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="148.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="95.7265625" customWidth="1"/>
+    <col min="20" max="20" width="121.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -2717,13 +2714,13 @@
         <v>360</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>747</v>
+        <v>508</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>748</v>
+        <v>509</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>367</v>
@@ -2794,19 +2791,19 @@
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
@@ -2850,19 +2847,19 @@
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="41.5" customHeight="1">
@@ -2906,19 +2903,19 @@
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
@@ -2962,19 +2959,19 @@
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
@@ -3018,19 +3015,19 @@
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="1" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
@@ -3074,19 +3071,19 @@
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="3" t="s">
-        <v>746</v>
+        <v>507</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
@@ -3130,22 +3127,22 @@
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="38.5" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>376</v>
       </c>
@@ -3186,19 +3183,19 @@
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
@@ -3242,19 +3239,19 @@
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
@@ -3298,19 +3295,19 @@
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
@@ -3354,19 +3351,19 @@
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1">
@@ -3410,19 +3407,19 @@
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
@@ -3466,19 +3463,19 @@
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1">
@@ -3522,19 +3519,19 @@
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="25.5" customHeight="1">
@@ -3578,19 +3575,19 @@
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1">
@@ -3634,19 +3631,19 @@
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="3" t="s">
-        <v>746</v>
+        <v>507</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1">
@@ -3690,19 +3687,19 @@
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="68" customHeight="1">
@@ -3746,19 +3743,19 @@
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="31.5" customHeight="1">
@@ -3802,19 +3799,19 @@
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="37.5" customHeight="1">
@@ -3858,19 +3855,19 @@
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="50" customHeight="1">
@@ -3914,19 +3911,19 @@
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="41.5" customHeight="1">
@@ -3970,19 +3967,19 @@
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1">
@@ -4026,19 +4023,19 @@
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1">
@@ -4082,19 +4079,19 @@
       </c>
       <c r="O25" s="9"/>
       <c r="P25" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1">
@@ -4138,19 +4135,19 @@
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
@@ -4194,19 +4191,19 @@
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1">
@@ -4250,19 +4247,19 @@
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1">
@@ -4306,19 +4303,19 @@
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="62.5">
@@ -4362,19 +4359,19 @@
       </c>
       <c r="O30" s="9"/>
       <c r="P30" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="75">
@@ -4418,19 +4415,19 @@
       </c>
       <c r="O31" s="9"/>
       <c r="P31" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="62.5">
@@ -4474,19 +4471,19 @@
       </c>
       <c r="O32" s="9"/>
       <c r="P32" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="62.5">
@@ -4530,19 +4527,19 @@
       </c>
       <c r="O33" s="9"/>
       <c r="P33" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="50">
@@ -4586,19 +4583,19 @@
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="50">
@@ -4642,19 +4639,19 @@
       </c>
       <c r="O35" s="9"/>
       <c r="P35" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="87.5">
@@ -4698,19 +4695,19 @@
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="50">
@@ -4754,19 +4751,19 @@
       </c>
       <c r="O37" s="9"/>
       <c r="P37" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="100">
@@ -4810,19 +4807,19 @@
       </c>
       <c r="O38" s="9"/>
       <c r="P38" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="62.5">
@@ -4866,19 +4863,19 @@
       </c>
       <c r="O39" s="9"/>
       <c r="P39" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="87.5">
@@ -4922,19 +4919,19 @@
       </c>
       <c r="O40" s="9"/>
       <c r="P40" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="75">
@@ -4978,19 +4975,19 @@
       </c>
       <c r="O41" s="9"/>
       <c r="P41" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="87.5">
@@ -5034,19 +5031,19 @@
       </c>
       <c r="O42" s="9"/>
       <c r="P42" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="75">
@@ -5090,19 +5087,19 @@
       </c>
       <c r="O43" s="9"/>
       <c r="P43" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="100">
@@ -5146,19 +5143,19 @@
       </c>
       <c r="O44" s="9"/>
       <c r="P44" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="87.5">
@@ -5202,19 +5199,19 @@
       </c>
       <c r="O45" s="9"/>
       <c r="P45" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="T45" s="10" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="75">
@@ -5258,19 +5255,19 @@
       </c>
       <c r="O46" s="9"/>
       <c r="P46" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>14</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="62.5">
@@ -5314,19 +5311,19 @@
       </c>
       <c r="O47" s="9"/>
       <c r="P47" s="3" t="s">
-        <v>746</v>
+        <v>507</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="T47" s="10" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="62.5">
@@ -5370,19 +5367,19 @@
       </c>
       <c r="O48" s="9"/>
       <c r="P48" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="62.5">
@@ -5426,19 +5423,19 @@
       </c>
       <c r="O49" s="9"/>
       <c r="P49" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="62.5">
@@ -5482,19 +5479,19 @@
       </c>
       <c r="O50" s="9"/>
       <c r="P50" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="T50" s="10" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="75">
@@ -5538,19 +5535,19 @@
       </c>
       <c r="O51" s="9"/>
       <c r="P51" s="3" t="s">
-        <v>746</v>
+        <v>507</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>14</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="T51" s="10" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="87.5">
@@ -5594,19 +5591,19 @@
       </c>
       <c r="O52" s="9"/>
       <c r="P52" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="75">
@@ -5650,19 +5647,19 @@
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="T53" s="10" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="75">
@@ -5706,19 +5703,19 @@
       </c>
       <c r="O54" s="9"/>
       <c r="P54" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="T54" s="10" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="75">
@@ -5762,19 +5759,19 @@
       </c>
       <c r="O55" s="9"/>
       <c r="P55" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="T55" s="10" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="75">
@@ -5818,19 +5815,19 @@
       </c>
       <c r="O56" s="9"/>
       <c r="P56" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="S56" s="10" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="T56" s="10" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="75">
@@ -5874,19 +5871,19 @@
       </c>
       <c r="O57" s="9"/>
       <c r="P57" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R57" s="10" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="S57" s="10" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="T57" s="10" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="62.5">
@@ -5930,19 +5927,19 @@
       </c>
       <c r="O58" s="9"/>
       <c r="P58" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="S58" s="10" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="T58" s="10" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="87.5">
@@ -5986,19 +5983,19 @@
       </c>
       <c r="O59" s="9"/>
       <c r="P59" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="S59" s="10" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="T59" s="10" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="75">
@@ -6042,19 +6039,19 @@
       </c>
       <c r="O60" s="9"/>
       <c r="P60" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="S60" s="10" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="T60" s="10" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="87.5">
@@ -6098,19 +6095,19 @@
       </c>
       <c r="O61" s="9"/>
       <c r="P61" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q61" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R61" s="10" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="T61" s="10" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="112.5">
@@ -6154,19 +6151,19 @@
       </c>
       <c r="O62" s="9"/>
       <c r="P62" s="3" t="s">
-        <v>746</v>
+        <v>507</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="S62" s="10" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="T62" s="10" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="75">
@@ -6210,19 +6207,19 @@
       </c>
       <c r="O63" s="9"/>
       <c r="P63" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="S63" s="10" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="75">
@@ -6266,19 +6263,19 @@
       </c>
       <c r="O64" s="9"/>
       <c r="P64" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q64" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R64" s="10" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="S64" s="10" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="T64" s="10" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="75">
@@ -6322,19 +6319,19 @@
       </c>
       <c r="O65" s="9"/>
       <c r="P65" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q65" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R65" s="10" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="S65" s="10" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="T65" s="10" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="75">
@@ -6378,19 +6375,19 @@
       </c>
       <c r="O66" s="9"/>
       <c r="P66" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="S66" s="10" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="T66" s="10" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="87.5">
@@ -6434,19 +6431,19 @@
       </c>
       <c r="O67" s="9"/>
       <c r="P67" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q67" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R67" s="10" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="S67" s="10" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="T67" s="10" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="87.5">
@@ -6490,19 +6487,19 @@
       </c>
       <c r="O68" s="9"/>
       <c r="P68" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q68" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R68" s="10" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="S68" s="10" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="T68" s="10" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="100">
@@ -6546,19 +6543,19 @@
       </c>
       <c r="O69" s="9"/>
       <c r="P69" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q69" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R69" s="10" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="S69" s="10" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="T69" s="10" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="75">
@@ -6602,19 +6599,19 @@
       </c>
       <c r="O70" s="9"/>
       <c r="P70" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R70" s="10" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="S70" s="10" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="T70" s="10" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="100">
@@ -6658,19 +6655,19 @@
       </c>
       <c r="O71" s="9"/>
       <c r="P71" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q71" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R71" s="10" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="S71" s="10" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="T71" s="10" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="62.5">
@@ -6714,19 +6711,19 @@
       </c>
       <c r="O72" s="9"/>
       <c r="P72" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R72" s="10" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="S72" s="10" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="T72" s="10" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="62.5">
@@ -6770,19 +6767,19 @@
       </c>
       <c r="O73" s="9"/>
       <c r="P73" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q73" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="S73" s="10" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="T73" s="10" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="87.5">
@@ -6826,19 +6823,19 @@
       </c>
       <c r="O74" s="9"/>
       <c r="P74" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q74" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R74" s="10" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="S74" s="10" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="T74" s="10" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="75">
@@ -6882,19 +6879,19 @@
       </c>
       <c r="O75" s="9"/>
       <c r="P75" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R75" s="10" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="S75" s="10" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="T75" s="10" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="87.5">
@@ -6938,19 +6935,19 @@
       </c>
       <c r="O76" s="9"/>
       <c r="P76" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R76" s="10" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="S76" s="10" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="T76" s="10" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="75">
@@ -6994,19 +6991,19 @@
       </c>
       <c r="O77" s="9"/>
       <c r="P77" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q77" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R77" s="10" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="S77" s="10" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="T77" s="10" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="62.5">
@@ -7050,19 +7047,19 @@
       </c>
       <c r="O78" s="9"/>
       <c r="P78" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q78" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R78" s="10" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="S78" s="10" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="T78" s="10" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="75">
@@ -7106,19 +7103,19 @@
       </c>
       <c r="O79" s="9"/>
       <c r="P79" s="3" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="Q79" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R79" s="10" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="S79" s="10" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="T79" s="10" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="75">
@@ -7162,19 +7159,19 @@
       </c>
       <c r="O80" s="9"/>
       <c r="P80" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q80" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R80" s="10" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="S80" s="10" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="T80" s="10" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="75">
@@ -7218,23 +7215,23 @@
       </c>
       <c r="O81" s="9"/>
       <c r="P81" s="3" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R81" s="10" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="S81" s="10" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="T81" s="10" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
